--- a/kcatCollection/kcatCollected.xlsx
+++ b/kcatCollection/kcatCollected.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/yeast_kapp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/Yeast_kapp/kcatCollection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF1DC1-9905-6342-BF4C-B64FF14477B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA645A0-A132-2340-8C27-2DF5D6C4F093}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2820" windowWidth="26820" windowHeight="16940" xr2:uid="{17625DEC-26AD-3A48-B7EB-8DA4301492B0}"/>
+    <workbookView xWindow="4220" yWindow="-21100" windowWidth="26820" windowHeight="21100" activeTab="3" xr2:uid="{17625DEC-26AD-3A48-B7EB-8DA4301492B0}"/>
   </bookViews>
   <sheets>
     <sheet name="BRENDA20210203" sheetId="1" r:id="rId1"/>
     <sheet name="SABIORK20210203" sheetId="2" r:id="rId2"/>
     <sheet name="Literature" sheetId="3" r:id="rId3"/>
+    <sheet name="SA" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="1057">
   <si>
     <t>Yeast8_rxn</t>
   </si>
@@ -2649,16 +2650,588 @@
   </si>
   <si>
     <t>TPI</t>
+  </si>
+  <si>
+    <t>1.1.1.116</t>
+  </si>
+  <si>
+    <t>1.1.1.169</t>
+  </si>
+  <si>
+    <t>1.1.1.283</t>
+  </si>
+  <si>
+    <t>1.1.1.85</t>
+  </si>
+  <si>
+    <t>1.17.4.1</t>
+  </si>
+  <si>
+    <t>1.2.1.11</t>
+  </si>
+  <si>
+    <t>1.3.1.34</t>
+  </si>
+  <si>
+    <t>1.5.1.10</t>
+  </si>
+  <si>
+    <t>1.5.1.15</t>
+  </si>
+  <si>
+    <t>1.5.1.2</t>
+  </si>
+  <si>
+    <t>1.6.2.2</t>
+  </si>
+  <si>
+    <t>2.1.1.10</t>
+  </si>
+  <si>
+    <t>2.1.1.45</t>
+  </si>
+  <si>
+    <t>2.1.3.3</t>
+  </si>
+  <si>
+    <t>2.2.1.2</t>
+  </si>
+  <si>
+    <t>2.3.1.31</t>
+  </si>
+  <si>
+    <t>2.3.1.35</t>
+  </si>
+  <si>
+    <t>2.3.1.7</t>
+  </si>
+  <si>
+    <t>2.3.2.2</t>
+  </si>
+  <si>
+    <t>2.3.3.10</t>
+  </si>
+  <si>
+    <t>2.4.1.16</t>
+  </si>
+  <si>
+    <t>2.4.2.10</t>
+  </si>
+  <si>
+    <t>2.4.2.7</t>
+  </si>
+  <si>
+    <t>2.5.1.54</t>
+  </si>
+  <si>
+    <t>2.5.1.6</t>
+  </si>
+  <si>
+    <t>2.6.1.44</t>
+  </si>
+  <si>
+    <t>2.7.1.105</t>
+  </si>
+  <si>
+    <t>2.7.1.23</t>
+  </si>
+  <si>
+    <t>2.7.1.25</t>
+  </si>
+  <si>
+    <t>2.7.1.39</t>
+  </si>
+  <si>
+    <t>2.7.2.11</t>
+  </si>
+  <si>
+    <t>2.7.4.14</t>
+  </si>
+  <si>
+    <t>2.7.4.9</t>
+  </si>
+  <si>
+    <t>2.7.7.5</t>
+  </si>
+  <si>
+    <t>2.7.8.11</t>
+  </si>
+  <si>
+    <t>3.1.2.12</t>
+  </si>
+  <si>
+    <t>3.1.3.1</t>
+  </si>
+  <si>
+    <t>3.1.3.15</t>
+  </si>
+  <si>
+    <t>3.1.3.99</t>
+  </si>
+  <si>
+    <t>3.2.1.20</t>
+  </si>
+  <si>
+    <t>3.5.1.41</t>
+  </si>
+  <si>
+    <t>3.5.3.1</t>
+  </si>
+  <si>
+    <t>3.5.4.5</t>
+  </si>
+  <si>
+    <t>3.5.4.6</t>
+  </si>
+  <si>
+    <t>4.1.1.50</t>
+  </si>
+  <si>
+    <t>4.2.1.2</t>
+  </si>
+  <si>
+    <t>4.2.1.20</t>
+  </si>
+  <si>
+    <t>4.2.1.24</t>
+  </si>
+  <si>
+    <t>5.1.3.2</t>
+  </si>
+  <si>
+    <t>5.5.1.4</t>
+  </si>
+  <si>
+    <t>6.1.1.7</t>
+  </si>
+  <si>
+    <t>6.3.3.2</t>
+  </si>
+  <si>
+    <t>6.3.4.21</t>
+  </si>
+  <si>
+    <t>6.3.4.5</t>
+  </si>
+  <si>
+    <t>6.3.4.6</t>
+  </si>
+  <si>
+    <t>PMID: 2223762</t>
+  </si>
+  <si>
+    <t>r_0731</t>
+  </si>
+  <si>
+    <t>r_0206</t>
+  </si>
+  <si>
+    <t>PMID: 2404017</t>
+  </si>
+  <si>
+    <t>SpecificActivity(µmol/min/mg)</t>
+  </si>
+  <si>
+    <t>r_0688</t>
+  </si>
+  <si>
+    <t>PMID: 3896793</t>
+  </si>
+  <si>
+    <t>PMID: 10574934</t>
+  </si>
+  <si>
+    <t>r_0703_fwd</t>
+  </si>
+  <si>
+    <t>r_0704_fwd</t>
+  </si>
+  <si>
+    <t>PMID: 17097644</t>
+  </si>
+  <si>
+    <t>r_0320</t>
+  </si>
+  <si>
+    <t>r_0019</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0021-9258(19)45143-0</t>
+  </si>
+  <si>
+    <t>PMID: 6993484</t>
+  </si>
+  <si>
+    <t>r_0061</t>
+  </si>
+  <si>
+    <t>PMID: 22465672</t>
+  </si>
+  <si>
+    <t>r_0974</t>
+  </si>
+  <si>
+    <t>r_0975</t>
+  </si>
+  <si>
+    <t>r_0976</t>
+  </si>
+  <si>
+    <t>r_0977</t>
+  </si>
+  <si>
+    <t>r_0219</t>
+  </si>
+  <si>
+    <t>PMID: 4145650</t>
+  </si>
+  <si>
+    <t>r_2303</t>
+  </si>
+  <si>
+    <t>r_2304</t>
+  </si>
+  <si>
+    <t>PMID: 9268358</t>
+  </si>
+  <si>
+    <t>r_0989</t>
+  </si>
+  <si>
+    <t>PMID: 3098733</t>
+  </si>
+  <si>
+    <t>r_0687</t>
+  </si>
+  <si>
+    <t>PMID: 7011388</t>
+  </si>
+  <si>
+    <t>r_4196_fwd</t>
+  </si>
+  <si>
+    <t>r_4197_fwd</t>
+  </si>
+  <si>
+    <t>PMID: 14930</t>
+  </si>
+  <si>
+    <t>r_0544</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0076-6879(71)17069-3</t>
+  </si>
+  <si>
+    <t>r_1045</t>
+  </si>
+  <si>
+    <t>PMID: 7028756</t>
+  </si>
+  <si>
+    <t>r_0816</t>
+  </si>
+  <si>
+    <t>PMID: 6370999</t>
+  </si>
+  <si>
+    <t>PMID: 18831051</t>
+  </si>
+  <si>
+    <t>r_1048_rvs</t>
+  </si>
+  <si>
+    <t>r_0549</t>
+  </si>
+  <si>
+    <t>PMID: 3301801</t>
+  </si>
+  <si>
+    <t>PMID: 7705341</t>
+  </si>
+  <si>
+    <t>r_0818</t>
+  </si>
+  <si>
+    <t>PMID: 1892891</t>
+  </si>
+  <si>
+    <t>r_0252</t>
+  </si>
+  <si>
+    <t>r_0253</t>
+  </si>
+  <si>
+    <t>r_0457</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0031-9422(00)83091-5</t>
+  </si>
+  <si>
+    <t>r_0559</t>
+  </si>
+  <si>
+    <t>r_0560</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0076-6879(75)35153-7</t>
+  </si>
+  <si>
+    <t>r_0272</t>
+  </si>
+  <si>
+    <t>PMID: 2955198</t>
+  </si>
+  <si>
+    <t>PMID: 357907</t>
+  </si>
+  <si>
+    <t>r_0820_rvs</t>
+  </si>
+  <si>
+    <t>MaxMolecularWeight(g/mol)</t>
+  </si>
+  <si>
+    <t>r_0139</t>
+  </si>
+  <si>
+    <t>PMID: 7660983</t>
+  </si>
+  <si>
+    <t>r_0020</t>
+  </si>
+  <si>
+    <t>r_0042</t>
+  </si>
+  <si>
+    <t>PMID: 9575238</t>
+  </si>
+  <si>
+    <t>r_0726</t>
+  </si>
+  <si>
+    <t>PMID: 194884</t>
+  </si>
+  <si>
+    <t>r_0156</t>
+  </si>
+  <si>
+    <t>PMID: 3933486</t>
+  </si>
+  <si>
+    <t>r_0090</t>
+  </si>
+  <si>
+    <t>PMID: 2529854</t>
+  </si>
+  <si>
+    <t>PMID: 221029</t>
+  </si>
+  <si>
+    <t>r_0154</t>
+  </si>
+  <si>
+    <t>PMID: 3019265</t>
+  </si>
+  <si>
+    <t>r_0548</t>
+  </si>
+  <si>
+    <t>PMID: 2165904</t>
+  </si>
+  <si>
+    <t>r_0468</t>
+  </si>
+  <si>
+    <t>PMID: 17449694</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/00021369.1983.10865581</t>
+  </si>
+  <si>
+    <t>r_1072</t>
+  </si>
+  <si>
+    <t>r_1073</t>
+  </si>
+  <si>
+    <t>r_0363</t>
+  </si>
+  <si>
+    <t>PMID: 19540237</t>
+  </si>
+  <si>
+    <t>PMID: 329837</t>
+  </si>
+  <si>
+    <t>r_2454</t>
+  </si>
+  <si>
+    <t>r_2455</t>
+  </si>
+  <si>
+    <t>r_2456</t>
+  </si>
+  <si>
+    <t>r_2457</t>
+  </si>
+  <si>
+    <t>r_2458</t>
+  </si>
+  <si>
+    <t>r_2459</t>
+  </si>
+  <si>
+    <t>r_2460</t>
+  </si>
+  <si>
+    <t>r_2461</t>
+  </si>
+  <si>
+    <t>PMID: 6300035</t>
+  </si>
+  <si>
+    <t>PMID: 10427036</t>
+  </si>
+  <si>
+    <t>r_0987_fwd</t>
+  </si>
+  <si>
+    <t>r_0188</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1515/znc-2000-7-818</t>
+  </si>
+  <si>
+    <t>r_0537</t>
+  </si>
+  <si>
+    <t>PMID: 4351203</t>
+  </si>
+  <si>
+    <t>r_0077</t>
+  </si>
+  <si>
+    <t>PMID: 8141771</t>
+  </si>
+  <si>
+    <t>PMID: 15291818</t>
+  </si>
+  <si>
+    <t>r_0198</t>
+  </si>
+  <si>
+    <t>r_0271</t>
+  </si>
+  <si>
+    <t>PMID: 11812231</t>
+  </si>
+  <si>
+    <t>PMID: 357899</t>
+  </si>
+  <si>
+    <t>r_0314</t>
+  </si>
+  <si>
+    <t>PMID: 39610</t>
+  </si>
+  <si>
+    <t>r_0143</t>
+  </si>
+  <si>
+    <t>r_0145</t>
+  </si>
+  <si>
+    <t>PMID: 6312267</t>
+  </si>
+  <si>
+    <t>PMID: 1633200</t>
+  </si>
+  <si>
+    <t>r_0451_fwd</t>
+  </si>
+  <si>
+    <t>r_0452_fwd</t>
+  </si>
+  <si>
+    <t>PMID: 6342605</t>
+  </si>
+  <si>
+    <t>r_1055</t>
+  </si>
+  <si>
+    <t>r_0935</t>
+  </si>
+  <si>
+    <t>PMID: 2204246</t>
+  </si>
+  <si>
+    <t>r_1070_rvs</t>
+  </si>
+  <si>
+    <t>PMID: 6292668</t>
+  </si>
+  <si>
+    <t>r_0758</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1021/ja952570i</t>
+  </si>
+  <si>
+    <t>r_0157</t>
+  </si>
+  <si>
+    <t>PMID: 7013809</t>
+  </si>
+  <si>
+    <t>r_0084</t>
+  </si>
+  <si>
+    <t>PMID: 11923304</t>
+  </si>
+  <si>
+    <t>PMID: 4324895</t>
+  </si>
+  <si>
+    <t>r_0774</t>
+  </si>
+  <si>
+    <t>r_0775</t>
+  </si>
+  <si>
+    <t>PMID: 35347</t>
+  </si>
+  <si>
+    <t>r_0208_fwd</t>
+  </si>
+  <si>
+    <t>r_1075</t>
+  </si>
+  <si>
+    <t>PMID: 4562164</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2681,13 +3254,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3002,8 +3578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80D8C03-C14B-694F-A4D8-5A380A85013F}">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3027,160 +3603,160 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B2">
-        <v>1500</v>
+        <v>895.4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>1.28</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>449</v>
       </c>
       <c r="B4">
-        <v>372</v>
+        <v>0.73</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>451</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>0.73</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>349</v>
       </c>
       <c r="B6">
-        <v>13.79</v>
+        <v>117.5</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>351</v>
       </c>
       <c r="B7">
-        <v>13.79</v>
+        <v>117.5</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>117.5</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>9581</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>43.8</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>210</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -3189,857 +3765,857 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B12">
-        <v>0.33</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>8.5</v>
+        <v>372</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>7.7</v>
+        <v>1500</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>5.5</v>
+        <v>1500</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="B16">
-        <v>25.5</v>
+        <v>1000</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>424</v>
       </c>
       <c r="B17">
-        <v>895.4</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>425</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="B18">
-        <v>9581</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>32</v>
+        <v>1.5</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c r="B20">
-        <v>2.9</v>
+        <v>41.7</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="B21">
-        <v>3.22</v>
+        <v>190</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="B22">
-        <v>3.22</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="B23">
-        <v>227</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="B24">
-        <v>9.3000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B25">
-        <v>9.3000000000000007</v>
+        <v>11.5</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B26">
+        <v>11.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>283</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>15.1</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>284</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="B28">
-        <v>2.5499999999999998</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>284</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>241</v>
       </c>
       <c r="B29">
-        <v>31.3</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="B30">
-        <v>361</v>
+        <v>3.1E-2</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B31">
-        <v>11.2</v>
+        <v>900</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="B32">
-        <v>21.5</v>
+        <v>900</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>327</v>
       </c>
       <c r="B33">
-        <v>1.81</v>
+        <v>900</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="B34">
-        <v>170</v>
+        <v>43.7</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>325</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>90</v>
+        <v>0.33</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="B36">
-        <v>11.5</v>
+        <v>0.33</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="B37">
-        <v>11.5</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
       <c r="B38">
-        <v>70.900000000000006</v>
+        <v>1.6</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>448</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>9.6</v>
+        <v>13.79</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>230</v>
+        <v>13.79</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B41">
-        <v>3.6999999999999998E-2</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="E41" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>348</v>
       </c>
       <c r="B42">
-        <v>1000</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B43">
-        <v>1.28</v>
+        <v>11.2</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="B44">
-        <v>4.9000000000000004</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>190</v>
+        <v>2.9</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>317</v>
       </c>
       <c r="B46">
-        <v>55.8</v>
+        <v>1.65</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>123</v>
+        <v>318</v>
       </c>
       <c r="E46" t="s">
-        <v>124</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B47">
-        <v>987</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B48">
-        <v>328</v>
+        <v>35.5</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B49">
-        <v>0.53700000000000003</v>
+        <v>6.09</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>8.64</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>427</v>
       </c>
       <c r="B51">
-        <v>35.5</v>
+        <v>6.09</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>428</v>
       </c>
       <c r="B52">
-        <v>1.4</v>
+        <v>8.64</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="B53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>345</v>
       </c>
       <c r="B54">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>346</v>
       </c>
       <c r="E54" t="s">
-        <v>145</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="B55">
-        <v>900</v>
+        <v>25.5</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="B56">
-        <v>900</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>149</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="B57">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>305</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>306</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="B58">
-        <v>833</v>
+        <v>55.8</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>369</v>
       </c>
       <c r="B59">
-        <v>0.73</v>
+        <v>2.77</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>370</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>371</v>
       </c>
       <c r="B60">
-        <v>8.9</v>
+        <v>2.77</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>370</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>372</v>
       </c>
       <c r="B61">
-        <v>90</v>
+        <v>2.77</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="E61" t="s">
         <v>36</v>
@@ -4047,554 +4623,554 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>373</v>
       </c>
       <c r="B62">
-        <v>394</v>
+        <v>2.77</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>370</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>374</v>
       </c>
       <c r="B63">
-        <v>1.67</v>
+        <v>2.77</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>370</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="B64">
-        <v>40</v>
+        <v>2.77</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="E64" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>376</v>
       </c>
       <c r="B65">
-        <v>40</v>
+        <v>2.77</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>170</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="B66">
-        <v>0.61699999999999999</v>
+        <v>2.77</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="B67">
-        <v>17</v>
+        <v>2.77</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>178</v>
+        <v>379</v>
       </c>
       <c r="B68">
-        <v>979</v>
+        <v>2.77</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>181</v>
+        <v>380</v>
       </c>
       <c r="B69">
-        <v>979</v>
+        <v>2.77</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="E69" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>182</v>
+        <v>381</v>
       </c>
       <c r="B70">
-        <v>5.4</v>
+        <v>2.77</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>370</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>382</v>
       </c>
       <c r="B71">
-        <v>260</v>
+        <v>2.77</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="E71" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="B72">
-        <v>260</v>
+        <v>2.77</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="E72" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>384</v>
       </c>
       <c r="B73">
-        <v>0.13</v>
+        <v>2.77</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>370</v>
       </c>
       <c r="E73" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="B74">
-        <v>0.13</v>
+        <v>2.77</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>370</v>
       </c>
       <c r="E74" t="s">
-        <v>190</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="B75">
-        <v>8.27</v>
+        <v>2.77</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>387</v>
       </c>
       <c r="B76">
-        <v>6.09</v>
+        <v>2.77</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>196</v>
+        <v>388</v>
       </c>
       <c r="B77">
-        <v>8.64</v>
+        <v>2.77</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>370</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>389</v>
       </c>
       <c r="B78">
-        <v>41</v>
+        <v>2.77</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
       <c r="E78" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>390</v>
       </c>
       <c r="B79">
-        <v>43.8</v>
+        <v>2.77</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="E79" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>203</v>
+        <v>391</v>
       </c>
       <c r="B80">
-        <v>41.7</v>
+        <v>2.77</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="E80" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>392</v>
       </c>
       <c r="B81">
-        <v>523</v>
+        <v>2.77</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>209</v>
+        <v>393</v>
       </c>
       <c r="B82">
-        <v>523</v>
+        <v>2.77</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>207</v>
+        <v>370</v>
       </c>
       <c r="E82" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="B83">
-        <v>11</v>
+        <v>2.77</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>370</v>
       </c>
       <c r="E83" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="B84">
-        <v>1820</v>
+        <v>2.77</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>370</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="B85">
-        <v>37.5</v>
+        <v>2.77</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="E85" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>397</v>
       </c>
       <c r="B86">
-        <v>37.5</v>
+        <v>2.77</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
       <c r="E86" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>398</v>
       </c>
       <c r="B87">
-        <v>20</v>
+        <v>2.77</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>219</v>
+        <v>370</v>
       </c>
       <c r="E87" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>221</v>
+        <v>399</v>
       </c>
       <c r="B88">
-        <v>0.33</v>
+        <v>2.77</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>32</v>
+        <v>370</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>400</v>
       </c>
       <c r="B89">
-        <v>1.3</v>
+        <v>2.77</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="E89" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>225</v>
+        <v>401</v>
       </c>
       <c r="B90">
-        <v>1.3</v>
+        <v>2.77</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B91">
-        <v>4.9000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E91" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B92">
-        <v>161</v>
+        <v>7.4</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E92" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B93">
-        <v>1.6699999999999999E-4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E93" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B94">
-        <v>7.4</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -4603,2186 +5179,2189 @@
         <v>236</v>
       </c>
       <c r="E94" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="B95">
-        <v>7.4</v>
+        <v>963.1</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="E95" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B96">
-        <v>6.4</v>
+        <v>354</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="E96" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>61</v>
       </c>
       <c r="B97">
-        <v>6.4</v>
+        <v>227</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>241</v>
+        <v>37</v>
       </c>
       <c r="B98">
-        <v>3.1E-2</v>
+        <v>7.7</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>242</v>
+        <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B99">
-        <v>16.100000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>93</v>
       </c>
       <c r="B100">
-        <v>16.100000000000001</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="E100" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="B101">
-        <v>3.1E-2</v>
+        <v>90</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="E101" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="B102">
-        <v>3.8</v>
+        <v>394</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>248</v>
+        <v>94</v>
       </c>
       <c r="E102" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="B103">
-        <v>13.3</v>
+        <v>987</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="E103" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="B104">
-        <v>3830</v>
+        <v>987</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>254</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="B105">
-        <v>0.15</v>
+        <v>31.3</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>257</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>341</v>
       </c>
       <c r="B106">
-        <v>1.81</v>
+        <v>15.4</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="E106" t="s">
-        <v>89</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="B107">
-        <v>4.2</v>
+        <v>8.92</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="E107" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>356</v>
       </c>
       <c r="B108">
-        <v>570</v>
+        <v>8.92</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="E108" t="s">
-        <v>264</v>
+        <v>355</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>265</v>
+        <v>357</v>
       </c>
       <c r="B109">
-        <v>603</v>
+        <v>8.92</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="E109" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>268</v>
+        <v>358</v>
       </c>
       <c r="B110">
-        <v>603</v>
+        <v>8.92</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>266</v>
+        <v>354</v>
       </c>
       <c r="E110" t="s">
-        <v>267</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="B111">
-        <v>20</v>
+        <v>8.92</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>27</v>
+        <v>354</v>
       </c>
       <c r="E111" t="s">
-        <v>270</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>271</v>
+        <v>360</v>
       </c>
       <c r="B112">
-        <v>65</v>
+        <v>8.92</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="E112" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>274</v>
+        <v>361</v>
       </c>
       <c r="B113">
-        <v>963.1</v>
+        <v>8.92</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>275</v>
+        <v>354</v>
       </c>
       <c r="E113" t="s">
-        <v>70</v>
+        <v>355</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>362</v>
       </c>
       <c r="B114">
+        <v>8.92</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
         <v>354</v>
       </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>275</v>
-      </c>
       <c r="E114" t="s">
-        <v>36</v>
+        <v>355</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>277</v>
+        <v>363</v>
       </c>
       <c r="B115">
-        <v>530</v>
+        <v>8.92</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="B116">
-        <v>69</v>
+        <v>8.92</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="B117">
-        <v>15.1</v>
+        <v>8.92</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="E117" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="B118">
-        <v>39</v>
+        <v>8.92</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="E118" t="s">
-        <v>287</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="B119">
-        <v>5.6</v>
+        <v>8.92</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="E119" t="s">
-        <v>290</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>291</v>
+        <v>368</v>
       </c>
       <c r="B120">
-        <v>23.4</v>
+        <v>8.92</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="E120" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>294</v>
+        <v>434</v>
       </c>
       <c r="B121">
-        <v>0.10299999999999999</v>
+        <v>8.92</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="E121" t="s">
-        <v>296</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="B122">
-        <v>0.7</v>
+        <v>96</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>295</v>
+        <v>69</v>
       </c>
       <c r="E122" t="s">
-        <v>298</v>
+        <v>70</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>299</v>
+        <v>71</v>
       </c>
       <c r="B123">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="E123" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="B124">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>302</v>
+        <v>69</v>
       </c>
       <c r="E124" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="B125">
-        <v>207</v>
+        <v>979</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="E125" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>304</v>
+        <v>181</v>
       </c>
       <c r="B126">
-        <v>232</v>
+        <v>979</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>305</v>
+        <v>179</v>
       </c>
       <c r="E126" t="s">
-        <v>306</v>
+        <v>180</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>307</v>
+        <v>116</v>
       </c>
       <c r="B127">
-        <v>1300</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>308</v>
+        <v>117</v>
       </c>
       <c r="E127" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>310</v>
+        <v>154</v>
       </c>
       <c r="B128">
-        <v>1300</v>
+        <v>833</v>
       </c>
       <c r="C128" t="s">
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>308</v>
+        <v>155</v>
       </c>
       <c r="E128" t="s">
-        <v>311</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="B129">
-        <v>1.0999999999999999E-2</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>313</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>314</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="B130">
-        <v>3.9</v>
+        <v>96.67</v>
       </c>
       <c r="C130" t="s">
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>317</v>
+        <v>405</v>
       </c>
       <c r="B131">
-        <v>1.65</v>
+        <v>96.67</v>
       </c>
       <c r="C131" t="s">
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>318</v>
+        <v>403</v>
       </c>
       <c r="E131" t="s">
-        <v>319</v>
+        <v>404</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="B132">
-        <v>3430</v>
+        <v>96.67</v>
       </c>
       <c r="C132" t="s">
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>403</v>
       </c>
       <c r="E132" t="s">
-        <v>322</v>
+        <v>404</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>323</v>
+        <v>407</v>
       </c>
       <c r="B133">
-        <v>96</v>
+        <v>96.67</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>403</v>
       </c>
       <c r="E133" t="s">
-        <v>70</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>324</v>
+        <v>408</v>
       </c>
       <c r="B134">
-        <v>43.7</v>
+        <v>96.67</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>325</v>
+        <v>403</v>
       </c>
       <c r="E134" t="s">
-        <v>326</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>327</v>
+        <v>409</v>
       </c>
       <c r="B135">
-        <v>900</v>
+        <v>96.67</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>148</v>
+        <v>403</v>
       </c>
       <c r="E135" t="s">
-        <v>149</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>410</v>
       </c>
       <c r="B136">
-        <v>43</v>
+        <v>96.67</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>199</v>
+        <v>403</v>
       </c>
       <c r="E136" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>330</v>
+        <v>411</v>
       </c>
       <c r="B137">
-        <v>3.32</v>
+        <v>96.67</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="E137" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="B138">
-        <v>3.32</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>331</v>
+        <v>415</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>23</v>
       </c>
       <c r="B139">
-        <v>860</v>
+        <v>21</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="E139" t="s">
-        <v>335</v>
+        <v>25</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
       <c r="B140">
-        <v>16700</v>
+        <v>55</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>334</v>
+        <v>441</v>
       </c>
       <c r="E140" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>337</v>
+        <v>442</v>
       </c>
       <c r="B141">
-        <v>6.08</v>
+        <v>103</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="E141" t="s">
-        <v>339</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="B142">
-        <v>6.08</v>
+        <v>3430</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E142" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="B143">
-        <v>15.4</v>
+        <v>328</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="E143" t="s">
-        <v>343</v>
+        <v>130</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>344</v>
+        <v>291</v>
       </c>
       <c r="B144">
-        <v>987</v>
+        <v>23.4</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>126</v>
+        <v>292</v>
       </c>
       <c r="E144" t="s">
-        <v>127</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="B145">
-        <v>0.64</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="E145" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>348</v>
+        <v>206</v>
       </c>
       <c r="B146">
-        <v>0.61699999999999999</v>
+        <v>523</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="E146" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>349</v>
+        <v>209</v>
       </c>
       <c r="B147">
-        <v>117.5</v>
+        <v>523</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>350</v>
+        <v>207</v>
       </c>
       <c r="E147" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="B148">
-        <v>117.5</v>
+        <v>3.8</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="E148" t="s">
-        <v>149</v>
+        <v>249</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>352</v>
+        <v>51</v>
       </c>
       <c r="B149">
-        <v>117.5</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>350</v>
+        <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>353</v>
+        <v>229</v>
       </c>
       <c r="B150">
-        <v>8.92</v>
+        <v>161</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="E150" t="s">
-        <v>355</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>356</v>
+        <v>90</v>
       </c>
       <c r="B151">
-        <v>8.92</v>
+        <v>170</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>354</v>
+        <v>91</v>
       </c>
       <c r="E151" t="s">
-        <v>355</v>
+        <v>92</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>357</v>
+        <v>39</v>
       </c>
       <c r="B152">
-        <v>8.92</v>
+        <v>5.5</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>354</v>
+        <v>40</v>
       </c>
       <c r="E152" t="s">
-        <v>355</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="B153">
-        <v>8.92</v>
+        <v>8.9</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>354</v>
+        <v>161</v>
       </c>
       <c r="E153" t="s">
-        <v>355</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
       <c r="B154">
-        <v>8.92</v>
+        <v>260</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>354</v>
+        <v>185</v>
       </c>
       <c r="E154" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>360</v>
+        <v>187</v>
       </c>
       <c r="B155">
-        <v>8.92</v>
+        <v>260</v>
       </c>
       <c r="C155" t="s">
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>354</v>
+        <v>185</v>
       </c>
       <c r="E155" t="s">
-        <v>355</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="B156">
-        <v>8.92</v>
+        <v>1150</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>354</v>
+        <v>445</v>
       </c>
       <c r="E156" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="B157">
-        <v>8.92</v>
+        <v>7.92</v>
       </c>
       <c r="C157" t="s">
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="E157" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="B158">
-        <v>8.92</v>
+        <v>1.6699999999999999E-4</v>
       </c>
       <c r="C158" t="s">
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>354</v>
+        <v>233</v>
       </c>
       <c r="E158" t="s">
-        <v>355</v>
+        <v>234</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>364</v>
+        <v>102</v>
       </c>
       <c r="B159">
-        <v>8.92</v>
+        <v>9.6</v>
       </c>
       <c r="C159" t="s">
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>354</v>
+        <v>103</v>
       </c>
       <c r="E159" t="s">
-        <v>355</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>365</v>
+        <v>253</v>
       </c>
       <c r="B160">
-        <v>8.92</v>
+        <v>3830</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="E160" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="B161">
-        <v>8.92</v>
+        <v>207</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="E161" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="B162">
-        <v>8.92</v>
+        <v>207</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="E162" t="s">
-        <v>355</v>
+        <v>197</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>368</v>
+        <v>131</v>
       </c>
       <c r="B163">
-        <v>8.92</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C163" t="s">
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>354</v>
+        <v>132</v>
       </c>
       <c r="E163" t="s">
-        <v>355</v>
+        <v>133</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="B164">
-        <v>2.77</v>
+        <v>4.2</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>261</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="B165">
-        <v>2.77</v>
+        <v>570</v>
       </c>
       <c r="C165" t="s">
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>370</v>
+        <v>263</v>
       </c>
       <c r="E165" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="B166">
-        <v>2.77</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C166" t="s">
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="E166" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>373</v>
+        <v>26</v>
       </c>
       <c r="B167">
-        <v>2.77</v>
+        <v>19</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>374</v>
+        <v>29</v>
       </c>
       <c r="B168">
-        <v>2.77</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
       </c>
       <c r="D168" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
       <c r="E168" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>375</v>
+        <v>182</v>
       </c>
       <c r="B169">
-        <v>2.77</v>
+        <v>5.4</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
       </c>
       <c r="D169" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
       <c r="E169" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="B170">
-        <v>2.77</v>
+        <v>20</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>27</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>377</v>
+        <v>271</v>
       </c>
       <c r="B171">
-        <v>2.77</v>
+        <v>65</v>
       </c>
       <c r="C171" t="s">
         <v>8</v>
       </c>
       <c r="D171" t="s">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>378</v>
+        <v>198</v>
       </c>
       <c r="B172">
-        <v>2.77</v>
+        <v>41</v>
       </c>
       <c r="C172" t="s">
         <v>8</v>
       </c>
       <c r="D172" t="s">
-        <v>370</v>
+        <v>199</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="B173">
-        <v>2.77</v>
+        <v>43</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
       </c>
       <c r="D173" t="s">
-        <v>370</v>
+        <v>199</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="B174">
-        <v>2.77</v>
+        <v>2.76E-2</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="E174" t="s">
-        <v>36</v>
+        <v>422</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>381</v>
+        <v>105</v>
       </c>
       <c r="B175">
-        <v>2.77</v>
+        <v>230</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
       </c>
       <c r="D175" t="s">
-        <v>370</v>
+        <v>106</v>
       </c>
       <c r="E175" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="B176">
-        <v>2.77</v>
+        <v>1.25</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
       </c>
       <c r="D176" t="s">
-        <v>370</v>
+        <v>430</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>383</v>
+        <v>84</v>
       </c>
       <c r="B177">
-        <v>2.77</v>
+        <v>21.5</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
       </c>
       <c r="D177" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="B178">
-        <v>2.77</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
         <v>8</v>
       </c>
       <c r="D178" t="s">
-        <v>370</v>
+        <v>432</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>433</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>385</v>
+        <v>87</v>
       </c>
       <c r="B179">
-        <v>2.77</v>
+        <v>1.81</v>
       </c>
       <c r="C179" t="s">
         <v>8</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>88</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>386</v>
+        <v>256</v>
       </c>
       <c r="B180">
-        <v>2.77</v>
+        <v>0.15</v>
       </c>
       <c r="C180" t="s">
         <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>370</v>
+        <v>88</v>
       </c>
       <c r="E180" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>387</v>
+        <v>258</v>
       </c>
       <c r="B181">
-        <v>2.77</v>
+        <v>1.81</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
       </c>
       <c r="D181" t="s">
-        <v>370</v>
+        <v>88</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>388</v>
+        <v>211</v>
       </c>
       <c r="B182">
-        <v>2.77</v>
+        <v>1820</v>
       </c>
       <c r="C182" t="s">
         <v>8</v>
       </c>
       <c r="D182" t="s">
-        <v>370</v>
+        <v>212</v>
       </c>
       <c r="E182" t="s">
-        <v>36</v>
+        <v>213</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>389</v>
+        <v>307</v>
       </c>
       <c r="B183">
-        <v>2.77</v>
+        <v>1300</v>
       </c>
       <c r="C183" t="s">
         <v>8</v>
       </c>
       <c r="D183" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>309</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="B184">
-        <v>2.77</v>
+        <v>1300</v>
       </c>
       <c r="C184" t="s">
         <v>8</v>
       </c>
       <c r="D184" t="s">
-        <v>370</v>
+        <v>308</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="B185">
-        <v>2.77</v>
+        <v>1950</v>
       </c>
       <c r="C185" t="s">
         <v>8</v>
       </c>
       <c r="D185" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="E185" t="s">
-        <v>36</v>
+        <v>437</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="B186">
-        <v>2.77</v>
+        <v>446</v>
       </c>
       <c r="C186" t="s">
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>393</v>
+        <v>333</v>
       </c>
       <c r="B187">
-        <v>2.77</v>
+        <v>860</v>
       </c>
       <c r="C187" t="s">
         <v>8</v>
       </c>
       <c r="D187" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>335</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="B188">
-        <v>2.77</v>
+        <v>16700</v>
       </c>
       <c r="C188" t="s">
         <v>8</v>
       </c>
       <c r="D188" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="E188" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="B189">
-        <v>2.77</v>
+        <v>69</v>
       </c>
       <c r="C189" t="s">
         <v>8</v>
       </c>
       <c r="D189" t="s">
-        <v>370</v>
+        <v>281</v>
       </c>
       <c r="E189" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>396</v>
+        <v>218</v>
       </c>
       <c r="B190">
-        <v>2.77</v>
+        <v>20</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
       </c>
       <c r="D190" t="s">
-        <v>370</v>
+        <v>219</v>
       </c>
       <c r="E190" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>397</v>
+        <v>192</v>
       </c>
       <c r="B191">
-        <v>2.77</v>
+        <v>8.27</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
       </c>
       <c r="D191" t="s">
-        <v>370</v>
+        <v>193</v>
       </c>
       <c r="E191" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="B192">
-        <v>2.77</v>
+        <v>530</v>
       </c>
       <c r="C192" t="s">
         <v>8</v>
       </c>
       <c r="D192" t="s">
-        <v>370</v>
+        <v>278</v>
       </c>
       <c r="E192" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="B193">
-        <v>2.77</v>
+        <v>361</v>
       </c>
       <c r="C193" t="s">
         <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="B194">
-        <v>2.77</v>
+        <v>6.08</v>
       </c>
       <c r="C194" t="s">
         <v>8</v>
       </c>
       <c r="D194" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E194" t="s">
-        <v>36</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="B195">
-        <v>2.77</v>
+        <v>6.08</v>
       </c>
       <c r="C195" t="s">
         <v>8</v>
       </c>
       <c r="D195" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>339</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="B196">
-        <v>96.67</v>
+        <v>1.3</v>
       </c>
       <c r="C196" t="s">
         <v>8</v>
       </c>
       <c r="D196" t="s">
-        <v>403</v>
+        <v>223</v>
       </c>
       <c r="E196" t="s">
-        <v>404</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>405</v>
+        <v>225</v>
       </c>
       <c r="B197">
-        <v>96.67</v>
+        <v>1.3</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
       </c>
       <c r="D197" t="s">
-        <v>403</v>
+        <v>223</v>
       </c>
       <c r="E197" t="s">
-        <v>404</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>406</v>
+        <v>315</v>
       </c>
       <c r="B198">
-        <v>96.67</v>
+        <v>3.9</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
       </c>
       <c r="D198" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
       <c r="E198" t="s">
-        <v>404</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>407</v>
+        <v>64</v>
       </c>
       <c r="B199">
-        <v>96.67</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
       </c>
       <c r="D199" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="E199" t="s">
-        <v>404</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="B200">
-        <v>96.67</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C200" t="s">
         <v>8</v>
       </c>
       <c r="D200" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="E200" t="s">
-        <v>404</v>
+        <v>66</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="B201">
-        <v>96.67</v>
+        <v>0.73</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
       </c>
       <c r="D201" t="s">
-        <v>403</v>
+        <v>158</v>
       </c>
       <c r="E201" t="s">
-        <v>404</v>
+        <v>159</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>410</v>
+        <v>288</v>
       </c>
       <c r="B202">
-        <v>96.67</v>
+        <v>5.6</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
       </c>
       <c r="D202" t="s">
-        <v>403</v>
+        <v>289</v>
       </c>
       <c r="E202" t="s">
-        <v>404</v>
+        <v>290</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B203">
-        <v>96.67</v>
+        <v>5.6</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
       </c>
       <c r="D203" t="s">
-        <v>403</v>
+        <v>289</v>
       </c>
       <c r="E203" t="s">
-        <v>404</v>
+        <v>290</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>412</v>
+        <v>143</v>
       </c>
       <c r="B204">
-        <v>20</v>
+        <v>1.5</v>
       </c>
       <c r="C204" t="s">
         <v>8</v>
       </c>
       <c r="D204" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="E204" t="s">
-        <v>413</v>
+        <v>145</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>414</v>
+        <v>146</v>
       </c>
       <c r="B205">
-        <v>2.8000000000000001E-2</v>
+        <v>1.5</v>
       </c>
       <c r="C205" t="s">
         <v>8</v>
       </c>
       <c r="D205" t="s">
-        <v>415</v>
+        <v>144</v>
       </c>
       <c r="E205" t="s">
-        <v>416</v>
+        <v>145</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>417</v>
+        <v>140</v>
       </c>
       <c r="B206">
-        <v>7.92</v>
+        <v>1.4</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
       </c>
       <c r="D206" t="s">
-        <v>418</v>
+        <v>141</v>
       </c>
       <c r="E206" t="s">
-        <v>419</v>
+        <v>142</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>57</v>
       </c>
       <c r="B207">
-        <v>2.76E-2</v>
+        <v>3.22</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
       </c>
       <c r="D207" t="s">
-        <v>421</v>
+        <v>58</v>
       </c>
       <c r="E207" t="s">
-        <v>422</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>423</v>
+        <v>60</v>
       </c>
       <c r="B208">
-        <v>5.6</v>
+        <v>3.22</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
       </c>
       <c r="D208" t="s">
-        <v>289</v>
+        <v>58</v>
       </c>
       <c r="E208" t="s">
-        <v>290</v>
+        <v>59</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>424</v>
+        <v>265</v>
       </c>
       <c r="B209">
-        <v>0.26500000000000001</v>
+        <v>603</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
       </c>
       <c r="D209" t="s">
-        <v>425</v>
+        <v>266</v>
       </c>
       <c r="E209" t="s">
-        <v>426</v>
+        <v>267</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>427</v>
+        <v>268</v>
       </c>
       <c r="B210">
-        <v>6.09</v>
+        <v>603</v>
       </c>
       <c r="C210" t="s">
         <v>8</v>
       </c>
       <c r="D210" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="E210" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>428</v>
+        <v>169</v>
       </c>
       <c r="B211">
-        <v>8.64</v>
+        <v>40</v>
       </c>
       <c r="C211" t="s">
         <v>8</v>
       </c>
       <c r="D211" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E211" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>429</v>
+        <v>172</v>
       </c>
       <c r="B212">
-        <v>1.25</v>
+        <v>40</v>
       </c>
       <c r="C212" t="s">
         <v>8</v>
       </c>
       <c r="D212" t="s">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="E212" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>431</v>
+        <v>330</v>
       </c>
       <c r="B213">
-        <v>17</v>
+        <v>3.32</v>
       </c>
       <c r="C213" t="s">
         <v>8</v>
       </c>
       <c r="D213" t="s">
-        <v>432</v>
+        <v>331</v>
       </c>
       <c r="E213" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>332</v>
       </c>
       <c r="B214">
-        <v>8.92</v>
+        <v>3.32</v>
       </c>
       <c r="C214" t="s">
         <v>8</v>
       </c>
       <c r="D214" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="E214" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>435</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>1950</v>
+        <v>37.5</v>
       </c>
       <c r="C215" t="s">
         <v>8</v>
       </c>
       <c r="D215" t="s">
-        <v>436</v>
+        <v>215</v>
       </c>
       <c r="E215" t="s">
-        <v>437</v>
+        <v>216</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="B216">
-        <v>446</v>
+        <v>37.5</v>
       </c>
       <c r="C216" t="s">
         <v>8</v>
       </c>
       <c r="D216" t="s">
-        <v>436</v>
+        <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>439</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>440</v>
+        <v>188</v>
       </c>
       <c r="B217">
-        <v>55</v>
+        <v>0.13</v>
       </c>
       <c r="C217" t="s">
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>441</v>
+        <v>189</v>
       </c>
       <c r="E217" t="s">
-        <v>322</v>
+        <v>190</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>191</v>
       </c>
       <c r="B218">
-        <v>103</v>
+        <v>0.13</v>
       </c>
       <c r="C218" t="s">
         <v>8</v>
       </c>
       <c r="D218" t="s">
-        <v>441</v>
+        <v>189</v>
       </c>
       <c r="E218" t="s">
-        <v>443</v>
+        <v>190</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>238</v>
       </c>
       <c r="B219">
-        <v>1150</v>
+        <v>6.4</v>
       </c>
       <c r="C219" t="s">
         <v>8</v>
       </c>
       <c r="D219" t="s">
-        <v>445</v>
+        <v>239</v>
       </c>
       <c r="E219" t="s">
-        <v>446</v>
+        <v>139</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>447</v>
+        <v>240</v>
       </c>
       <c r="B220">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="C220" t="s">
         <v>8</v>
       </c>
       <c r="D220" t="s">
-        <v>448</v>
+        <v>239</v>
       </c>
       <c r="E220" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="B221">
-        <v>0.73</v>
+        <v>60</v>
       </c>
       <c r="C221" t="s">
         <v>8</v>
       </c>
       <c r="D221" t="s">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="E221" t="s">
-        <v>450</v>
+        <v>197</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>451</v>
+        <v>34</v>
       </c>
       <c r="B222">
-        <v>0.73</v>
+        <v>8.5</v>
       </c>
       <c r="C222" t="s">
         <v>8</v>
       </c>
       <c r="D222" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E222" t="s">
-        <v>450</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E222">
+    <sortCondition ref="D2:D222"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6792,7 +7371,7 @@
   <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9066,10 +9645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2951AF60-7007-5F46-B40A-B3BA06EC96F5}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9256,10 +9835,1675 @@
         <v>858</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>934</v>
+      </c>
+      <c r="B14">
+        <v>5.2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>935</v>
+      </c>
+      <c r="B15">
+        <v>5.2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>933</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
     <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6529A-AD0F-BE40-B12B-B05CC7888B52}">
+  <dimension ref="A1:F77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>930</v>
+      </c>
+      <c r="F1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B2">
+        <f>E2*F2/60/1000</f>
+        <v>3.2495199999999995</v>
+      </c>
+      <c r="C2" t="s">
+        <v>926</v>
+      </c>
+      <c r="D2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E2">
+        <v>5.38</v>
+      </c>
+      <c r="F2">
+        <v>36240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B3">
+        <f>E3*F3/60/1000</f>
+        <v>526.0145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>929</v>
+      </c>
+      <c r="D3" t="s">
+        <v>912</v>
+      </c>
+      <c r="E3">
+        <v>885</v>
+      </c>
+      <c r="F3">
+        <v>35662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>931</v>
+      </c>
+      <c r="B4">
+        <f>E4*F4/60/1000</f>
+        <v>5.3310766666666671</v>
+      </c>
+      <c r="C4" t="s">
+        <v>932</v>
+      </c>
+      <c r="D4" t="s">
+        <v>873</v>
+      </c>
+      <c r="E4">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="F4">
+        <v>38170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>937</v>
+      </c>
+      <c r="B5">
+        <f>E5*F5/60/1000</f>
+        <v>1.1465999999999998</v>
+      </c>
+      <c r="C5" t="s">
+        <v>936</v>
+      </c>
+      <c r="D5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E5">
+        <v>1.8</v>
+      </c>
+      <c r="F5">
+        <v>38220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>938</v>
+      </c>
+      <c r="B6">
+        <f>E6*F6/60/1000</f>
+        <v>0.27119966666666662</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D6" t="s">
+        <v>872</v>
+      </c>
+      <c r="E6">
+        <v>0.38</v>
+      </c>
+      <c r="F6">
+        <v>42821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>941</v>
+      </c>
+      <c r="B7">
+        <f>E7*F7/60/1000</f>
+        <v>12.529881666666666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>940</v>
+      </c>
+      <c r="D7" t="s">
+        <v>874</v>
+      </c>
+      <c r="E7">
+        <v>19.3</v>
+      </c>
+      <c r="F7">
+        <v>38953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>943</v>
+      </c>
+      <c r="B8">
+        <f>E8*F8/60/1000</f>
+        <v>0.4281123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>942</v>
+      </c>
+      <c r="D8" t="s">
+        <v>875</v>
+      </c>
+      <c r="E8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F8">
+        <v>99561</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>944</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:B17" si="0">E9*F9/60/1000</f>
+        <v>0.4281123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>942</v>
+      </c>
+      <c r="D9" t="s">
+        <v>875</v>
+      </c>
+      <c r="E9">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F9">
+        <v>99561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>945</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.31527650000000002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>942</v>
+      </c>
+      <c r="D10" t="s">
+        <v>875</v>
+      </c>
+      <c r="E10">
+        <v>0.19</v>
+      </c>
+      <c r="F10">
+        <v>99561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>946</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.31527650000000002</v>
+      </c>
+      <c r="C11" t="s">
+        <v>942</v>
+      </c>
+      <c r="D11" t="s">
+        <v>875</v>
+      </c>
+      <c r="E11">
+        <v>0.19</v>
+      </c>
+      <c r="F11">
+        <v>99561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>947</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>48.111866666666671</v>
+      </c>
+      <c r="C12" t="s">
+        <v>948</v>
+      </c>
+      <c r="D12" t="s">
+        <v>876</v>
+      </c>
+      <c r="E12">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>39544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>949</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.92808516666666663</v>
+      </c>
+      <c r="C13" t="s">
+        <v>951</v>
+      </c>
+      <c r="D13" t="s">
+        <v>877</v>
+      </c>
+      <c r="E13">
+        <v>1.79</v>
+      </c>
+      <c r="F13">
+        <v>31109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>950</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.92808516666666663</v>
+      </c>
+      <c r="C14" t="s">
+        <v>951</v>
+      </c>
+      <c r="D14" t="s">
+        <v>877</v>
+      </c>
+      <c r="E14">
+        <v>1.79</v>
+      </c>
+      <c r="F14">
+        <v>31109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>952</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>219.63366699999997</v>
+      </c>
+      <c r="C15" t="s">
+        <v>953</v>
+      </c>
+      <c r="D15" t="s">
+        <v>878</v>
+      </c>
+      <c r="E15">
+        <v>269.39</v>
+      </c>
+      <c r="F15">
+        <v>48918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>954</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>140.61600000000001</v>
+      </c>
+      <c r="C16" t="s">
+        <v>955</v>
+      </c>
+      <c r="D16" t="s">
+        <v>880</v>
+      </c>
+      <c r="E16">
+        <v>280</v>
+      </c>
+      <c r="F16">
+        <v>30132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>956</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>41.050543333333337</v>
+      </c>
+      <c r="C17" t="s">
+        <v>958</v>
+      </c>
+      <c r="D17" t="s">
+        <v>881</v>
+      </c>
+      <c r="E17">
+        <v>69.8</v>
+      </c>
+      <c r="F17">
+        <v>35287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>957</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B33" si="1">E18*F18/60/1000</f>
+        <v>41.050543333333337</v>
+      </c>
+      <c r="C18" t="s">
+        <v>958</v>
+      </c>
+      <c r="D18" t="s">
+        <v>881</v>
+      </c>
+      <c r="E18">
+        <v>69.8</v>
+      </c>
+      <c r="F18">
+        <v>35287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>959</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>50.360741666666669</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D19" t="s">
+        <v>882</v>
+      </c>
+      <c r="E19">
+        <v>82.3</v>
+      </c>
+      <c r="F19">
+        <v>36715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>961</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0.70094000000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>962</v>
+      </c>
+      <c r="D20" t="s">
+        <v>883</v>
+      </c>
+      <c r="E20">
+        <v>1.2</v>
+      </c>
+      <c r="F20">
+        <v>35047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>963</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>353.85075000000001</v>
+      </c>
+      <c r="C21" t="s">
+        <v>964</v>
+      </c>
+      <c r="D21" t="s">
+        <v>884</v>
+      </c>
+      <c r="E21">
+        <v>561</v>
+      </c>
+      <c r="F21">
+        <v>37845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>966</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>2.1110600000000002</v>
+      </c>
+      <c r="C22" t="s">
+        <v>965</v>
+      </c>
+      <c r="D22" t="s">
+        <v>885</v>
+      </c>
+      <c r="E22">
+        <v>3.4</v>
+      </c>
+      <c r="F22">
+        <v>37254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>967</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>60.276943333333335</v>
+      </c>
+      <c r="C23" t="s">
+        <v>968</v>
+      </c>
+      <c r="D23" t="s">
+        <v>886</v>
+      </c>
+      <c r="E23">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="F23">
+        <v>53659</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>970</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>17.3165531</v>
+      </c>
+      <c r="C24" t="s">
+        <v>969</v>
+      </c>
+      <c r="D24" t="s">
+        <v>887</v>
+      </c>
+      <c r="E24">
+        <v>21.713999999999999</v>
+      </c>
+      <c r="F24">
+        <v>47849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>972</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>344.44666666666666</v>
+      </c>
+      <c r="C25" t="s">
+        <v>971</v>
+      </c>
+      <c r="D25" t="s">
+        <v>888</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>103334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>973</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>257.47333333333336</v>
+      </c>
+      <c r="C26" t="s">
+        <v>971</v>
+      </c>
+      <c r="D26" t="s">
+        <v>888</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>77242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>974</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>146.36000000000001</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D27" t="s">
+        <v>889</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+      <c r="F27">
+        <v>73180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>976</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1.9254900000000001</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D28" t="s">
+        <v>890</v>
+      </c>
+      <c r="E28">
+        <v>2.1</v>
+      </c>
+      <c r="F28">
+        <v>55014</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>977</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1.9254900000000001</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D29" t="s">
+        <v>890</v>
+      </c>
+      <c r="E29">
+        <v>2.1</v>
+      </c>
+      <c r="F29">
+        <v>55014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>979</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>93.656044999999992</v>
+      </c>
+      <c r="C30" t="s">
+        <v>980</v>
+      </c>
+      <c r="D30" t="s">
+        <v>891</v>
+      </c>
+      <c r="E30">
+        <v>42.7</v>
+      </c>
+      <c r="F30">
+        <v>131601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>982</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>33.742959999999997</v>
+      </c>
+      <c r="C31" t="s">
+        <v>981</v>
+      </c>
+      <c r="D31" t="s">
+        <v>892</v>
+      </c>
+      <c r="E31">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F31">
+        <v>24811</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>984</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>5.1947863333333331</v>
+      </c>
+      <c r="C32" t="s">
+        <v>985</v>
+      </c>
+      <c r="D32" t="s">
+        <v>893</v>
+      </c>
+      <c r="E32">
+        <v>15.14</v>
+      </c>
+      <c r="F32">
+        <v>20587</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>986</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>5.6402799999999997</v>
+      </c>
+      <c r="C33" t="s">
+        <v>988</v>
+      </c>
+      <c r="D33" t="s">
+        <v>894</v>
+      </c>
+      <c r="E33">
+        <v>8.24</v>
+      </c>
+      <c r="F33">
+        <v>41070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>987</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B38" si="2">E34*F34/60/1000</f>
+        <v>5.6402799999999997</v>
+      </c>
+      <c r="C34" t="s">
+        <v>988</v>
+      </c>
+      <c r="D34" t="s">
+        <v>894</v>
+      </c>
+      <c r="E34">
+        <v>8.24</v>
+      </c>
+      <c r="F34">
+        <v>41070</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>989</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>13.169786666666665</v>
+      </c>
+      <c r="C35" t="s">
+        <v>990</v>
+      </c>
+      <c r="D35" t="s">
+        <v>895</v>
+      </c>
+      <c r="E35">
+        <v>18.7</v>
+      </c>
+      <c r="F35">
+        <v>42256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>991</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>125.86068999999999</v>
+      </c>
+      <c r="C36" t="s">
+        <v>992</v>
+      </c>
+      <c r="D36" t="s">
+        <v>896</v>
+      </c>
+      <c r="E36">
+        <v>180.2</v>
+      </c>
+      <c r="F36">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>993</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>2.024035</v>
+      </c>
+      <c r="C37" t="s">
+        <v>994</v>
+      </c>
+      <c r="D37" t="s">
+        <v>897</v>
+      </c>
+      <c r="E37">
+        <v>1.3</v>
+      </c>
+      <c r="F37">
+        <v>93417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>3.1716800000000003</v>
+      </c>
+      <c r="C38" t="s">
+        <v>995</v>
+      </c>
+      <c r="D38" t="s">
+        <v>898</v>
+      </c>
+      <c r="E38">
+        <v>3.2</v>
+      </c>
+      <c r="F38">
+        <v>59469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:B43" si="3">E39*F39/60/1000</f>
+        <v>3.1716800000000003</v>
+      </c>
+      <c r="C39" t="s">
+        <v>995</v>
+      </c>
+      <c r="D39" t="s">
+        <v>898</v>
+      </c>
+      <c r="E39">
+        <v>3.2</v>
+      </c>
+      <c r="F39">
+        <v>59469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>996</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.3243773333333333</v>
+      </c>
+      <c r="C40" t="s">
+        <v>997</v>
+      </c>
+      <c r="D40" t="s">
+        <v>899</v>
+      </c>
+      <c r="E40">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="F40">
+        <v>23060</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>998</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>2.0001199999999999</v>
+      </c>
+      <c r="C41" t="s">
+        <v>999</v>
+      </c>
+      <c r="D41" t="s">
+        <v>900</v>
+      </c>
+      <c r="E41">
+        <v>3.1</v>
+      </c>
+      <c r="F41">
+        <v>38712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>11.554690000000001</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D42" t="s">
+        <v>901</v>
+      </c>
+      <c r="E42">
+        <v>14.7</v>
+      </c>
+      <c r="F42">
+        <v>47162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>4.2426049999999993</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D43" t="s">
+        <v>902</v>
+      </c>
+      <c r="E43">
+        <v>11.1</v>
+      </c>
+      <c r="F43">
+        <v>22933</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:B47" si="4">E44*F44/60/1000</f>
+        <v>4.2426049999999993</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D44" t="s">
+        <v>902</v>
+      </c>
+      <c r="E44">
+        <v>11.1</v>
+      </c>
+      <c r="F44">
+        <v>22933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
+        <v>1.1932049999999999E-3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D45" t="s">
+        <v>903</v>
+      </c>
+      <c r="E45">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="F45">
+        <v>24687</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
+        <v>0.48657333333333336</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D46" t="s">
+        <v>904</v>
+      </c>
+      <c r="E46">
+        <v>0.8</v>
+      </c>
+      <c r="F46">
+        <v>36493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D47" t="s">
+        <v>905</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:B49" si="5">E48*F48/60/1000</f>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D48" t="s">
+        <v>905</v>
+      </c>
+      <c r="E48">
+        <v>0.8</v>
+      </c>
+      <c r="F48">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="5"/>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D49" t="s">
+        <v>905</v>
+      </c>
+      <c r="E49">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:B65" si="6">E50*F50/60/1000</f>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D50" t="s">
+        <v>905</v>
+      </c>
+      <c r="E50">
+        <v>0.8</v>
+      </c>
+      <c r="F50">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="6"/>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D51" t="s">
+        <v>905</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="6"/>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D52" t="s">
+        <v>905</v>
+      </c>
+      <c r="E52">
+        <v>0.8</v>
+      </c>
+      <c r="F52">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="6"/>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D53" t="s">
+        <v>905</v>
+      </c>
+      <c r="E53">
+        <v>0.8</v>
+      </c>
+      <c r="F53">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="6"/>
+        <v>0.33098666666666665</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D54" t="s">
+        <v>905</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="6"/>
+        <v>40.720800000000004</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D55" t="s">
+        <v>906</v>
+      </c>
+      <c r="E55">
+        <v>72</v>
+      </c>
+      <c r="F55">
+        <v>33934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="6"/>
+        <v>57.260135333333331</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D56" t="s">
+        <v>907</v>
+      </c>
+      <c r="E56">
+        <v>54.53</v>
+      </c>
+      <c r="F56">
+        <v>63004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="6"/>
+        <v>274.38232333333337</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D57" t="s">
+        <v>908</v>
+      </c>
+      <c r="E57">
+        <v>426.7</v>
+      </c>
+      <c r="F57">
+        <v>38582</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="6"/>
+        <v>87.688749999999999</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D58" t="s">
+        <v>909</v>
+      </c>
+      <c r="E58">
+        <v>102.5</v>
+      </c>
+      <c r="F58">
+        <v>51330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="6"/>
+        <v>80.148833333333329</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D59" t="s">
+        <v>910</v>
+      </c>
+      <c r="E59">
+        <v>70</v>
+      </c>
+      <c r="F59">
+        <v>68699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="6"/>
+        <v>458.65504999999996</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D60" t="s">
+        <v>911</v>
+      </c>
+      <c r="E60">
+        <v>771</v>
+      </c>
+      <c r="F60">
+        <v>35693</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>928</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="6"/>
+        <v>526.0145</v>
+      </c>
+      <c r="C61" t="s">
+        <v>929</v>
+      </c>
+      <c r="D61" t="s">
+        <v>912</v>
+      </c>
+      <c r="E61">
+        <v>885</v>
+      </c>
+      <c r="F61">
+        <v>35662</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="6"/>
+        <v>0.80994346666666672</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D62" t="s">
+        <v>913</v>
+      </c>
+      <c r="E62">
+        <v>3.1280000000000001</v>
+      </c>
+      <c r="F62">
+        <v>15536</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="6"/>
+        <v>533.84294333333332</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D63" t="s">
+        <v>914</v>
+      </c>
+      <c r="E63">
+        <v>343.3</v>
+      </c>
+      <c r="F63">
+        <v>93302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="6"/>
+        <v>8.1676533333333329E-2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D64" t="s">
+        <v>915</v>
+      </c>
+      <c r="E64">
+        <v>0.106</v>
+      </c>
+      <c r="F64">
+        <v>46232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="6"/>
+        <v>1018.7466666666667</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D65" t="s">
+        <v>916</v>
+      </c>
+      <c r="E65">
+        <v>1150</v>
+      </c>
+      <c r="F65">
+        <v>53152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B73" si="7">E66*F66/60/1000</f>
+        <v>1018.7466666666667</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D66" t="s">
+        <v>916</v>
+      </c>
+      <c r="E66">
+        <v>1150</v>
+      </c>
+      <c r="F66">
+        <v>53152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="7"/>
+        <v>2.158299</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D67" t="s">
+        <v>917</v>
+      </c>
+      <c r="E67">
+        <v>1.69</v>
+      </c>
+      <c r="F67">
+        <v>76626</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="7"/>
+        <v>0.33966000000000002</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D68" t="s">
+        <v>918</v>
+      </c>
+      <c r="E68">
+        <v>0.54</v>
+      </c>
+      <c r="F68">
+        <v>37740</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>41.443349999999995</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D69" t="s">
+        <v>919</v>
+      </c>
+      <c r="E69">
+        <v>31.8</v>
+      </c>
+      <c r="F69">
+        <v>78195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>0.21868733333333332</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D70" t="s">
+        <v>920</v>
+      </c>
+      <c r="E70">
+        <v>0.22</v>
+      </c>
+      <c r="F70">
+        <v>59642</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>0.30816520000000003</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D71" t="s">
+        <v>921</v>
+      </c>
+      <c r="E71">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="F71">
+        <v>110059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>2.8068833333333334</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D72" t="s">
+        <v>922</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>24059</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>1.8790616666666666</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D73" t="s">
+        <v>923</v>
+      </c>
+      <c r="E73">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F73">
+        <v>49019</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:B77" si="8">E74*F74/60/1000</f>
+        <v>1.8790616666666666</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D74" t="s">
+        <v>923</v>
+      </c>
+      <c r="E74">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F74">
+        <v>49019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="8"/>
+        <v>3.550885333333333</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D75" t="s">
+        <v>924</v>
+      </c>
+      <c r="E75">
+        <v>4.54</v>
+      </c>
+      <c r="F75">
+        <v>46928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="8"/>
+        <v>8.2078346666666668</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D76" t="s">
+        <v>925</v>
+      </c>
+      <c r="E76">
+        <v>2.44</v>
+      </c>
+      <c r="F76">
+        <v>201832</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="8"/>
+        <v>25.733580000000003</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D77" t="s">
+        <v>925</v>
+      </c>
+      <c r="E77">
+        <v>7.65</v>
+      </c>
+      <c r="F77">
+        <v>201832</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{52EE0EBF-D23B-5A43-A508-7CFFF8C69452}"/>
+    <hyperlink ref="C19" r:id="rId2" xr:uid="{C8CAAB73-A221-1B49-B60B-12E683D51C94}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{04378760-3775-A142-8EE9-41B4BD9AA7FB}"/>
+    <hyperlink ref="C28" r:id="rId4" xr:uid="{1FEA4041-C754-F540-8944-FE51FF20B9FE}"/>
+    <hyperlink ref="C29" r:id="rId5" xr:uid="{B2B2FF19-F57A-9245-A9B3-918C5279351C}"/>
+    <hyperlink ref="C43" r:id="rId6" xr:uid="{753518C1-5125-D549-86C6-311609D6664D}"/>
+    <hyperlink ref="C44" r:id="rId7" xr:uid="{8526F37C-C68B-D542-8650-6659C88668C4}"/>
+    <hyperlink ref="C56" r:id="rId8" xr:uid="{464BCD38-573A-7E4E-B42B-2B384BC60ADA}"/>
+    <hyperlink ref="C70" r:id="rId9" xr:uid="{98D7FF82-1303-4E4A-BBD3-52F5D3461FDA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/kcatCollection/kcatCollected.xlsx
+++ b/kcatCollection/kcatCollected.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/Yeast_kapp/kcatCollection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C84605D-89CB-8348-9C0C-F8D244620F13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEDA3DD-41C6-1D48-B2CA-D11157E08379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="28260" windowHeight="20500" activeTab="1" xr2:uid="{17625DEC-26AD-3A48-B7EB-8DA4301492B0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="21000" xr2:uid="{17625DEC-26AD-3A48-B7EB-8DA4301492B0}"/>
   </bookViews>
   <sheets>
     <sheet name="BRENDA20210203" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1017">
   <si>
     <t>Yeast8_rxn</t>
   </si>
@@ -396,9 +396,6 @@
     <t>1.3.98.1</t>
   </si>
   <si>
-    <t>s-dihydroorotate</t>
-  </si>
-  <si>
     <t>r_0458</t>
   </si>
   <si>
@@ -2184,27 +2181,6 @@
     <t>PMID: 14690456</t>
   </si>
   <si>
-    <t>r_0988</t>
-  </si>
-  <si>
-    <t>14015</t>
-  </si>
-  <si>
-    <t>H2O + N6-(L-1,3-Dicarboxypropyl)-L-lysine + NAD+ = H+ + NADH + L-Lysine + 2-Oxoglutarate</t>
-  </si>
-  <si>
-    <t>1.5.1.7</t>
-  </si>
-  <si>
-    <t>N6-(L-1,3-Dicarboxypropyl)-L-lysine;NAD+;H2O</t>
-  </si>
-  <si>
-    <t>L-Lysine;NADH;H+;2-Oxoglutarate</t>
-  </si>
-  <si>
-    <t>PMID: 17002315</t>
-  </si>
-  <si>
     <t>r_1025</t>
   </si>
   <si>
@@ -2889,9 +2865,6 @@
     <t>PMID: 10427036</t>
   </si>
   <si>
-    <t>r_0987_fwd</t>
-  </si>
-  <si>
     <t>r_0188</t>
   </si>
   <si>
@@ -3103,6 +3076,18 @@
   </si>
   <si>
     <t>adp-ribose 1-phosphate</t>
+  </si>
+  <si>
+    <t>s-dihydroorotate;fumarate</t>
+  </si>
+  <si>
+    <t>4.3.2.10</t>
+  </si>
+  <si>
+    <t>5-[(5-phospho-1-deoxy-D-ribulos-1-ylamino)methylideneamino]-1-(5-phospho-beta-D-ribosyl)imidazole-4-carboxamide;L-glutamine</t>
+  </si>
+  <si>
+    <t>r_0987</t>
   </si>
 </sst>
 </file>
@@ -3480,10 +3465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80D8C03-C14B-694F-A4D8-5A380A85013F}">
-  <dimension ref="A1:F217"/>
+  <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3508,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,7 +3741,7 @@
         <v>117</v>
       </c>
       <c r="B14" s="1">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -3765,7 +3750,7 @@
         <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>119</v>
+        <v>1013</v>
       </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
@@ -3773,7 +3758,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="1">
         <v>29</v>
@@ -3782,10 +3767,10 @@
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
@@ -3793,7 +3778,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1">
         <v>833</v>
@@ -3802,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="F16" s="1" t="b">
         <v>0</v>
@@ -3813,7 +3798,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="1">
         <v>0.33</v>
@@ -3822,10 +3807,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F17" s="1" t="b">
         <v>0</v>
@@ -3833,7 +3818,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="1">
         <v>0.33</v>
@@ -3853,7 +3838,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B19" s="1">
         <v>1.3</v>
@@ -3862,10 +3847,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="F19" s="1" t="b">
         <v>0</v>
@@ -3873,7 +3858,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B20" s="1">
         <v>570</v>
@@ -3882,10 +3867,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>0</v>
@@ -3893,7 +3878,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B21" s="1">
         <v>65</v>
@@ -3902,10 +3887,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="F21" s="1" t="b">
         <v>0</v>
@@ -3913,7 +3898,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" s="1">
         <v>963.1</v>
@@ -3922,7 +3907,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>68</v>
@@ -3933,7 +3918,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B23" s="1">
         <v>354</v>
@@ -3942,7 +3927,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>34</v>
@@ -3953,7 +3938,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B24" s="1">
         <v>530</v>
@@ -3962,10 +3947,10 @@
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="F24" s="1" t="b">
         <v>0</v>
@@ -3973,7 +3958,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1">
         <v>60</v>
@@ -3982,10 +3967,10 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" s="1" t="b">
         <v>0</v>
@@ -3993,7 +3978,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B26" s="1">
         <v>232</v>
@@ -4002,10 +3987,10 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="F26" s="1" t="b">
         <v>0</v>
@@ -4013,7 +3998,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" s="1">
         <v>1300</v>
@@ -4022,10 +4007,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>0</v>
@@ -4033,7 +4018,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B28" s="1">
         <v>1300</v>
@@ -4042,10 +4027,10 @@
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F28" s="1" t="b">
         <v>0</v>
@@ -4053,7 +4038,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="1">
         <v>96</v>
@@ -4073,7 +4058,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B30" s="1">
         <v>6.08</v>
@@ -4082,10 +4067,10 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="F30" s="1" t="b">
         <v>0</v>
@@ -4093,7 +4078,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="1">
         <v>8.92</v>
@@ -4102,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>0</v>
@@ -4113,7 +4098,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B32" s="1">
         <v>8.92</v>
@@ -4122,10 +4107,10 @@
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>0</v>
@@ -4133,7 +4118,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B33" s="1">
         <v>8.92</v>
@@ -4142,10 +4127,10 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>0</v>
@@ -4165,7 +4150,7 @@
         <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>1</v>
@@ -4293,7 +4278,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1">
         <v>14</v>
@@ -4302,10 +4287,10 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="F41" s="1" t="b">
         <v>1</v>
@@ -4313,7 +4298,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="1">
         <v>1.4</v>
@@ -4322,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F42" s="1" t="b">
         <v>1</v>
@@ -4333,7 +4318,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="1">
         <v>1.5</v>
@@ -4342,10 +4327,10 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="F43" s="1" t="b">
         <v>1</v>
@@ -4353,7 +4338,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B44" s="1">
         <v>40</v>
@@ -4362,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F44" s="1" t="b">
         <v>1</v>
@@ -4373,7 +4358,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B45" s="1">
         <v>17</v>
@@ -4382,10 +4367,10 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="F45" s="1" t="b">
         <v>1</v>
@@ -4393,19 +4378,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>608</v>
       </c>
       <c r="B46" s="1">
-        <v>260</v>
+        <v>5.4</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>182</v>
+        <v>1014</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>183</v>
+        <v>1015</v>
       </c>
       <c r="F46" s="1" t="b">
         <v>1</v>
@@ -4413,19 +4398,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1">
-        <v>0.13</v>
+        <v>260</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F47" s="1" t="b">
         <v>1</v>
@@ -4433,19 +4418,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B48" s="1">
-        <v>8.27</v>
+        <v>0.13</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="F48" s="1" t="b">
         <v>1</v>
@@ -4453,19 +4438,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1">
-        <v>8.64</v>
+        <v>8.27</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="F49" s="1" t="b">
         <v>1</v>
@@ -4473,19 +4458,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="B50" s="1">
-        <v>37.5</v>
+        <v>8.64</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="F50" s="1" t="b">
         <v>1</v>
@@ -4493,19 +4478,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1">
-        <v>4.9000000000000004</v>
+        <v>37.5</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="F51" s="1" t="b">
         <v>1</v>
@@ -4513,19 +4498,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B52" s="1">
-        <v>161</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F52" s="1" t="b">
         <v>1</v>
@@ -4533,19 +4518,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B53" s="1">
-        <v>6.4</v>
+        <v>161</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="F53" s="1" t="b">
         <v>1</v>
@@ -4553,19 +4538,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B54" s="1">
-        <v>16.100000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="F54" s="1" t="b">
         <v>1</v>
@@ -4573,19 +4558,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B55" s="1">
-        <v>1.81</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>87</v>
+        <v>238</v>
       </c>
       <c r="F55" s="1" t="b">
         <v>1</v>
@@ -4593,19 +4578,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="B56" s="1">
-        <v>39</v>
+        <v>1.81</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="F56" s="1" t="b">
         <v>1</v>
@@ -4613,19 +4598,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B57" s="1">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="F57" s="1" t="b">
         <v>1</v>
@@ -4633,19 +4618,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B58" s="1">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
       <c r="F58" s="1" t="b">
         <v>1</v>
@@ -4653,19 +4638,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B59" s="1">
-        <v>207</v>
+        <v>5.6</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="F59" s="1" t="b">
         <v>1</v>
@@ -4673,19 +4658,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="B60" s="1">
-        <v>3.9</v>
+        <v>207</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="F60" s="1" t="b">
         <v>1</v>
@@ -4693,19 +4678,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="B61" s="1">
-        <v>3.32</v>
+        <v>207</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="F61" s="1" t="b">
         <v>1</v>
@@ -4713,19 +4698,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="B62" s="1">
-        <v>860</v>
+        <v>3.9</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>327</v>
+        <v>34</v>
       </c>
       <c r="F62" s="1" t="b">
         <v>1</v>
@@ -4733,19 +4718,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B63" s="1">
-        <v>8900</v>
+        <v>3.32</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="F63" s="1" t="b">
         <v>1</v>
@@ -4753,19 +4738,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="B64" s="1">
-        <v>0.61699999999999999</v>
+        <v>860</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>171</v>
+        <v>325</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="F64" s="1" t="b">
         <v>1</v>
@@ -4773,19 +4758,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="B65" s="1">
-        <v>8.64</v>
+        <v>8900</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="F65" s="1" t="b">
         <v>1</v>
@@ -4793,19 +4778,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="B66" s="1">
-        <v>1.25</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>421</v>
+        <v>170</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="F66" s="1" t="b">
         <v>1</v>
@@ -4813,1078 +4798,1084 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>5</v>
+        <v>418</v>
       </c>
       <c r="B67" s="1">
-        <v>1500</v>
+        <v>8.64</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>6</v>
+        <v>191</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+      <c r="F67" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>9</v>
+        <v>419</v>
       </c>
       <c r="B68" s="1">
-        <v>1500</v>
+        <v>1.25</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>6</v>
+        <v>420</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>7</v>
+        <v>209</v>
+      </c>
+      <c r="F68" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B69" s="1">
-        <v>372</v>
+        <v>1500</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B70" s="1">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B71" s="1">
-        <v>21</v>
+        <v>372</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1018</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B72" s="1">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>34</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B74" s="1">
-        <v>5.5</v>
+        <v>0.33</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B75" s="1">
-        <v>32</v>
+        <v>8.5</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B76" s="1">
-        <v>3.22</v>
+        <v>5.5</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B77" s="1">
-        <v>9.3000000000000007</v>
+        <v>32</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B78" s="1">
-        <v>96</v>
+        <v>3.22</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1">
-        <v>96</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B80" s="1">
-        <v>2.5499999999999998</v>
+        <v>96</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1">
-        <v>31.3</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B82" s="1">
-        <v>11.2</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1">
-        <v>1.81</v>
+        <v>31.3</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B84" s="1">
-        <v>170</v>
+        <v>11.2</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
-        <v>90</v>
+        <v>1.81</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1">
-        <v>11.5</v>
+        <v>170</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1">
-        <v>9.6</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B88" s="1">
-        <v>3.6999999999999998E-2</v>
+        <v>11.5</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B90" s="1">
-        <v>1.28</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B91" s="1">
-        <v>55.8</v>
+        <v>1000</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B92" s="1">
-        <v>987</v>
+        <v>1.28</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B93" s="1">
-        <v>328</v>
+        <v>55.8</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B94" s="1">
-        <v>0.53700000000000003</v>
+        <v>987</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1">
-        <v>35.5</v>
+        <v>328</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B96" s="1">
-        <v>1.5</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B97" s="1">
-        <v>900</v>
+        <v>35.5</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B98" s="1">
-        <v>900</v>
+        <v>1.5</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B99" s="1">
-        <v>8.9</v>
+        <v>900</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B100" s="1">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B101" s="1">
-        <v>394</v>
+        <v>8.9</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B102" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B103" s="1">
-        <v>0.61699999999999999</v>
+        <v>394</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B104" s="1">
-        <v>979</v>
+        <v>40</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B105" s="1">
-        <v>979</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B106" s="1">
-        <v>5.4</v>
+        <v>979</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B107" s="1">
-        <v>260</v>
+        <v>979</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B108" s="1">
-        <v>0.13</v>
+        <v>5.4</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B109" s="1">
-        <v>6.09</v>
+        <v>260</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B110" s="1">
-        <v>41</v>
+        <v>0.13</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B111" s="1">
-        <v>43.8</v>
+        <v>6.09</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B112" s="1">
-        <v>41.7</v>
+        <v>41</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B113" s="1">
-        <v>523</v>
+        <v>43.8</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B114" s="1">
-        <v>523</v>
+        <v>41.7</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B115" s="1">
-        <v>11</v>
+        <v>523</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B116" s="1">
-        <v>1820</v>
+        <v>523</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B117" s="1">
-        <v>37.5</v>
+        <v>11</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B118" s="1">
-        <v>20</v>
+        <v>1820</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B119" s="1">
-        <v>1.6699999999999999E-4</v>
+        <v>37.5</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B120" s="1">
-        <v>7.4</v>
+        <v>20</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B121" s="1">
-        <v>7.4</v>
+        <v>1.6699999999999999E-4</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B122" s="1">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>137</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B123" s="1">
-        <v>16.100000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B124" s="1">
-        <v>3.8</v>
+        <v>6.4</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B125" s="1">
-        <v>13.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B126" s="1">
-        <v>3830</v>
+        <v>3.8</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B127" s="1">
-        <v>0.15</v>
+        <v>13.3</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>86</v>
+        <v>246</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B128" s="1">
-        <v>4.2</v>
+        <v>3830</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B129" s="1">
-        <v>603</v>
+        <v>0.15</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B130" s="1">
         <v>603</v>
@@ -5893,304 +5884,304 @@
         <v>8</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B131" s="1">
-        <v>20</v>
+        <v>603</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B132" s="1">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B133" s="1">
-        <v>15.1</v>
+        <v>69</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B134" s="1">
-        <v>23.4</v>
+        <v>15.1</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B135" s="1">
-        <v>0.10299999999999999</v>
+        <v>23.4</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>1019</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B136" s="1">
-        <v>0.7</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B137" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.7</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>307</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B138" s="1">
-        <v>3430</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B139" s="1">
-        <v>43.7</v>
+        <v>3430</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B140" s="1">
-        <v>900</v>
+        <v>43.7</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>146</v>
+        <v>316</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>147</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B141" s="1">
-        <v>43</v>
+        <v>900</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>321</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B142" s="1">
-        <v>3.32</v>
+        <v>43</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>323</v>
+        <v>195</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B143" s="1">
-        <v>6.08</v>
+        <v>3.32</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B144" s="1">
-        <v>15.4</v>
+        <v>6.08</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B145" s="1">
-        <v>987</v>
+        <v>15.4</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>124</v>
+        <v>333</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>125</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B146" s="1">
-        <v>0.64</v>
+        <v>987</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>338</v>
+        <v>123</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>339</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B147" s="1">
-        <v>117.5</v>
+        <v>0.64</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>147</v>
+        <v>338</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B148" s="1">
         <v>117.5</v>
@@ -6199,15 +6190,15 @@
         <v>8</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B149" s="1">
         <v>117.5</v>
@@ -6216,32 +6207,32 @@
         <v>8</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B150" s="1">
-        <v>8.92</v>
+        <v>117.5</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>347</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B151" s="1">
         <v>8.92</v>
@@ -6250,15 +6241,15 @@
         <v>8</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B152" s="1">
         <v>8.92</v>
@@ -6267,15 +6258,15 @@
         <v>8</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B153" s="1">
         <v>8.92</v>
@@ -6284,15 +6275,15 @@
         <v>8</v>
       </c>
       <c r="D153" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B154" s="1">
         <v>8.92</v>
@@ -6301,15 +6292,15 @@
         <v>8</v>
       </c>
       <c r="D154" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B155" s="1">
         <v>8.92</v>
@@ -6318,15 +6309,15 @@
         <v>8</v>
       </c>
       <c r="D155" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B156" s="1">
         <v>8.92</v>
@@ -6335,15 +6326,15 @@
         <v>8</v>
       </c>
       <c r="D156" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B157" s="1">
         <v>8.92</v>
@@ -6352,15 +6343,15 @@
         <v>8</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B158" s="1">
         <v>8.92</v>
@@ -6369,15 +6360,15 @@
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B159" s="1">
         <v>8.92</v>
@@ -6386,15 +6377,15 @@
         <v>8</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B160" s="1">
         <v>8.92</v>
@@ -6403,32 +6394,32 @@
         <v>8</v>
       </c>
       <c r="D160" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B161" s="1">
-        <v>2.77</v>
+        <v>8.92</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B162" s="1">
         <v>2.77</v>
@@ -6437,7 +6428,7 @@
         <v>8</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>34</v>
@@ -6445,7 +6436,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B163" s="1">
         <v>2.77</v>
@@ -6454,7 +6445,7 @@
         <v>8</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>34</v>
@@ -6462,7 +6453,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B164" s="1">
         <v>2.77</v>
@@ -6471,7 +6462,7 @@
         <v>8</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>34</v>
@@ -6479,7 +6470,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B165" s="1">
         <v>2.77</v>
@@ -6488,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>34</v>
@@ -6496,7 +6487,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B166" s="1">
         <v>2.77</v>
@@ -6505,7 +6496,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>34</v>
@@ -6513,7 +6504,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B167" s="1">
         <v>2.77</v>
@@ -6522,7 +6513,7 @@
         <v>8</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>34</v>
@@ -6530,7 +6521,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B168" s="1">
         <v>2.77</v>
@@ -6539,7 +6530,7 @@
         <v>8</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>34</v>
@@ -6547,7 +6538,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B169" s="1">
         <v>2.77</v>
@@ -6556,7 +6547,7 @@
         <v>8</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>34</v>
@@ -6564,7 +6555,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B170" s="1">
         <v>2.77</v>
@@ -6573,7 +6564,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>34</v>
@@ -6581,7 +6572,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B171" s="1">
         <v>2.77</v>
@@ -6590,7 +6581,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>34</v>
@@ -6598,7 +6589,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B172" s="1">
         <v>2.77</v>
@@ -6607,7 +6598,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>34</v>
@@ -6615,7 +6606,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B173" s="1">
         <v>2.77</v>
@@ -6624,7 +6615,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>34</v>
@@ -6632,7 +6623,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B174" s="1">
         <v>2.77</v>
@@ -6641,7 +6632,7 @@
         <v>8</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>34</v>
@@ -6649,7 +6640,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B175" s="1">
         <v>2.77</v>
@@ -6658,7 +6649,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>34</v>
@@ -6666,7 +6657,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B176" s="1">
         <v>2.77</v>
@@ -6675,7 +6666,7 @@
         <v>8</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>34</v>
@@ -6683,7 +6674,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B177" s="1">
         <v>2.77</v>
@@ -6692,7 +6683,7 @@
         <v>8</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>34</v>
@@ -6700,7 +6691,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B178" s="1">
         <v>2.77</v>
@@ -6709,7 +6700,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>34</v>
@@ -6717,7 +6708,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B179" s="1">
         <v>2.77</v>
@@ -6726,7 +6717,7 @@
         <v>8</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>34</v>
@@ -6734,7 +6725,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B180" s="1">
         <v>2.77</v>
@@ -6743,7 +6734,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>34</v>
@@ -6751,7 +6742,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B181" s="1">
         <v>2.77</v>
@@ -6760,7 +6751,7 @@
         <v>8</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>34</v>
@@ -6768,7 +6759,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B182" s="1">
         <v>2.77</v>
@@ -6777,7 +6768,7 @@
         <v>8</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>34</v>
@@ -6785,7 +6776,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B183" s="1">
         <v>2.77</v>
@@ -6794,7 +6785,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>34</v>
@@ -6802,7 +6793,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B184" s="1">
         <v>2.77</v>
@@ -6811,7 +6802,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>34</v>
@@ -6819,7 +6810,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B185" s="1">
         <v>2.77</v>
@@ -6828,7 +6819,7 @@
         <v>8</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>34</v>
@@ -6836,7 +6827,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B186" s="1">
         <v>2.77</v>
@@ -6845,7 +6836,7 @@
         <v>8</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>34</v>
@@ -6853,7 +6844,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B187" s="1">
         <v>2.77</v>
@@ -6862,7 +6853,7 @@
         <v>8</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>34</v>
@@ -6870,7 +6861,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B188" s="1">
         <v>2.77</v>
@@ -6879,7 +6870,7 @@
         <v>8</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>34</v>
@@ -6887,7 +6878,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B189" s="1">
         <v>2.77</v>
@@ -6896,7 +6887,7 @@
         <v>8</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>34</v>
@@ -6904,7 +6895,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B190" s="1">
         <v>2.77</v>
@@ -6913,7 +6904,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>34</v>
@@ -6921,7 +6912,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B191" s="1">
         <v>2.77</v>
@@ -6930,7 +6921,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>34</v>
@@ -6938,7 +6929,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B192" s="1">
         <v>2.77</v>
@@ -6947,7 +6938,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>34</v>
@@ -6955,24 +6946,24 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B193" s="1">
-        <v>96.67</v>
+        <v>2.77</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>396</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B194" s="1">
         <v>96.67</v>
@@ -6981,15 +6972,15 @@
         <v>8</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B195" s="1">
         <v>96.67</v>
@@ -6998,15 +6989,15 @@
         <v>8</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B196" s="1">
         <v>96.67</v>
@@ -7015,15 +7006,15 @@
         <v>8</v>
       </c>
       <c r="D196" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E196" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B197" s="1">
         <v>96.67</v>
@@ -7032,15 +7023,15 @@
         <v>8</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B198" s="1">
         <v>96.67</v>
@@ -7049,15 +7040,15 @@
         <v>8</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B199" s="1">
         <v>96.67</v>
@@ -7066,15 +7057,15 @@
         <v>8</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B200" s="1">
         <v>96.67</v>
@@ -7083,287 +7074,287 @@
         <v>8</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B201" s="1">
-        <v>20</v>
+        <v>96.67</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>287</v>
+        <v>394</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B202" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>20</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>1021</v>
+        <v>404</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B203" s="1">
-        <v>7.92</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>410</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B204" s="1">
-        <v>2.76E-2</v>
+        <v>7.92</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B205" s="1">
-        <v>5.6</v>
+        <v>2.76E-2</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>284</v>
+        <v>411</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>285</v>
+        <v>412</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B206" s="1">
-        <v>0.26500000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>416</v>
+        <v>283</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>417</v>
+        <v>284</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B207" s="1">
-        <v>6.09</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>192</v>
+        <v>415</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>134</v>
+        <v>416</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B208" s="1">
-        <v>17</v>
+        <v>6.09</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>423</v>
+        <v>191</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>424</v>
+        <v>133</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B209" s="1">
-        <v>8.92</v>
+        <v>17</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B210" s="1">
-        <v>1950</v>
+        <v>8.92</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>427</v>
+        <v>345</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B211" s="1">
-        <v>446</v>
+        <v>1950</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B212" s="1">
-        <v>55</v>
+        <v>446</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>314</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B213" s="1">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B214" s="1">
-        <v>1150</v>
+        <v>103</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B215" s="1">
-        <v>1.6</v>
+        <v>1150</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>81</v>
+        <v>436</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B216" s="1">
-        <v>0.73</v>
+        <v>1.6</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>44</v>
+        <v>438</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>441</v>
+        <v>81</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B217" s="1">
         <v>0.73</v>
@@ -7375,12 +7366,30 @@
         <v>44</v>
       </c>
       <c r="E217" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="B218" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F218">
-    <sortCondition ref="F2:F218"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F219">
+    <sortCondition ref="F2:F219"/>
+    <sortCondition ref="A2:A219"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7389,10 +7398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BEE0D0-75AB-9C42-8970-6FB205982B32}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7415,10 +7424,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -7427,36 +7436,36 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" s="1">
         <v>1633.3333333333301</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>0</v>
@@ -7470,22 +7479,22 @@
         <v>74.900000000000006</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>509</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>0</v>
@@ -7499,22 +7508,22 @@
         <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
@@ -7522,28 +7531,28 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B5" s="1">
         <v>15.6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>0</v>
@@ -7551,28 +7560,28 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B6" s="1">
         <v>202.4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
@@ -7580,28 +7589,28 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B7" s="1">
         <v>1470</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>0</v>
@@ -7609,28 +7618,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" s="1">
         <v>11420</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>0</v>
@@ -7638,28 +7647,28 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1">
         <v>4.4000000000000004</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>0</v>
@@ -7667,28 +7676,28 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B10" s="1">
         <v>10.2110974</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>0</v>
@@ -7696,28 +7705,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B11" s="1">
         <v>0.40407475199999998</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>0</v>
@@ -7725,28 +7734,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B12" s="1">
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>0</v>
@@ -7754,28 +7763,28 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" s="1">
         <v>28.33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -7783,28 +7792,28 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B14" s="1">
         <v>606.70000000000005</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>690</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>0</v>
@@ -7812,28 +7821,28 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="1">
         <v>630</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>0</v>
@@ -7841,28 +7850,28 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B16" s="1">
         <v>1200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>0</v>
@@ -7870,28 +7879,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B17" s="1">
         <v>12.42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>0</v>
@@ -7899,28 +7908,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="1">
         <v>816.66666699999996</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>0</v>
@@ -7928,28 +7937,28 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" s="1">
         <v>16666.666700000002</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>0</v>
@@ -7963,22 +7972,22 @@
         <v>49.3</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -7986,28 +7995,28 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B21" s="1">
         <v>11.2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -8015,28 +8024,28 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B22" s="1">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -8044,28 +8053,28 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B23" s="1">
         <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>603</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -8073,28 +8082,28 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B24" s="1">
         <v>6.8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
@@ -8102,28 +8111,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B25" s="1">
         <v>8.2466666666666608</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>651</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -8131,28 +8140,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="B26" s="1">
-        <v>20</v>
+        <v>46.3</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -8160,28 +8169,28 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="B27" s="1">
-        <v>46.3</v>
+        <v>26.3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>735</v>
+        <v>640</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>730</v>
+        <v>635</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>731</v>
+        <v>636</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>732</v>
+        <v>637</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>733</v>
+        <v>638</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>734</v>
+        <v>639</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -8189,135 +8198,132 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>748</v>
+        <v>445</v>
       </c>
       <c r="B28" s="1">
-        <v>26.3</v>
+        <v>1300</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>641</v>
+        <v>451</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>636</v>
+        <v>446</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>637</v>
+        <v>447</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>638</v>
+        <v>448</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>639</v>
+        <v>449</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>446</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1">
-        <v>1300</v>
+        <v>165</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>462</v>
       </c>
       <c r="B30" s="1">
-        <v>165</v>
+        <v>5.4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>465</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B31" s="1">
-        <v>5.4</v>
+        <v>0.2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B32" s="1">
         <v>0.2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -8328,22 +8334,22 @@
         <v>0.2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -8351,77 +8357,77 @@
         <v>478</v>
       </c>
       <c r="B34" s="1">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B35" s="1">
-        <v>0.05</v>
+        <v>92.3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>482</v>
+        <v>47</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B36" s="1">
         <v>92.3</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -8429,337 +8435,337 @@
         <v>492</v>
       </c>
       <c r="B37" s="1">
-        <v>92.3</v>
+        <v>113</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B38" s="1">
-        <v>113</v>
+        <v>91.8</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>501</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1">
-        <v>91.8</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>519</v>
       </c>
       <c r="B40" s="1">
-        <v>27</v>
+        <v>355000</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>63</v>
+        <v>522</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B41" s="1">
         <v>355000</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>527</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1">
-        <v>355000</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>526</v>
+        <v>543</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>523</v>
+        <v>107</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>524</v>
+        <v>541</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>525</v>
+        <v>542</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>1463</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B44" s="1">
-        <v>1463</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>144</v>
+        <v>579</v>
       </c>
       <c r="B45" s="1">
-        <v>4.4000000000000004</v>
+        <v>52.9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>142</v>
+        <v>582</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B46" s="1">
         <v>52.9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>587</v>
+        <v>169</v>
       </c>
       <c r="B47" s="1">
-        <v>52.9</v>
+        <v>0.6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>583</v>
+        <v>170</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B48" s="1">
-        <v>0.6</v>
+        <v>979</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1">
         <v>979</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -8767,576 +8773,551 @@
         <v>178</v>
       </c>
       <c r="B50" s="1">
-        <v>979</v>
+        <v>3.81</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>176</v>
+        <v>623</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B51" s="1">
         <v>179</v>
       </c>
-      <c r="B51" s="1">
-        <v>3.81</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B52" s="1">
-        <v>179</v>
+        <v>26.3</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B53" s="1">
         <v>26.3</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>639</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="1">
+        <v>41.6666666666666</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B54" s="1">
-        <v>26.3</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>638</v>
+        <v>200</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B55" s="1">
-        <v>41.6666666666666</v>
+        <v>1816.6666700000001</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>485</v>
+        <v>657</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B56" s="1">
-        <v>1816.6666700000001</v>
+        <v>20</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>654</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>657</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>215</v>
+        <v>662</v>
       </c>
       <c r="B57" s="1">
-        <v>20</v>
+        <v>0.20749999999999999</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>216</v>
+        <v>665</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>571</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="B58" s="1">
-        <v>0.20749999999999999</v>
+        <v>210</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>669</v>
+        <v>550</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="B59" s="1">
-        <v>210</v>
+        <v>653</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>551</v>
+        <v>713</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B60" s="1">
-        <v>653</v>
+        <v>0.86</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>722</v>
+        <v>332</v>
       </c>
       <c r="B61" s="1">
-        <v>0.86</v>
+        <v>15.419666700000001</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>725</v>
+        <v>333</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="B62" s="1">
-        <v>15.419666700000001</v>
+        <v>5.6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>746</v>
+        <v>701</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>742</v>
+        <v>697</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>743</v>
+        <v>698</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>744</v>
+        <v>699</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>745</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>414</v>
+        <v>741</v>
       </c>
       <c r="B63" s="1">
-        <v>5.6</v>
+        <v>9.8166666666666593</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>702</v>
+        <v>747</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>698</v>
+        <v>742</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>699</v>
+        <v>743</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>284</v>
+        <v>744</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>700</v>
+        <v>745</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>701</v>
+        <v>746</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B64" s="1">
+        <v>247.8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B64" s="1">
-        <v>9.8166666666666593</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B65" s="1">
-        <v>247.8</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="F65" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B66" s="1">
-        <v>1.0649999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D66" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>763</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>422</v>
+        <v>765</v>
       </c>
       <c r="B67" s="1">
-        <v>13.1</v>
+        <v>112</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B68" s="1">
+        <v>93</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B68" s="1">
-        <v>112</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>776</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B69" s="1">
+        <v>84</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="B69" s="1">
-        <v>93</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B70" s="1">
         <v>84</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B71" s="1">
-        <v>84</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I72">
-    <sortCondition ref="I2:I72"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I70">
+    <sortCondition ref="I2:I70"/>
+    <sortCondition ref="A2:A70"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9347,7 +9328,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9366,10 +9347,10 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -9380,10 +9361,10 @@
         <v>19.899999999999999</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E2" s="1" t="b">
         <v>0</v>
@@ -9391,16 +9372,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B3" s="1">
         <v>4.1399999999999997</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="E3" s="1" t="b">
         <v>0</v>
@@ -9408,16 +9389,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B4" s="1">
         <v>487</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E4" s="1" t="b">
         <v>0</v>
@@ -9425,16 +9406,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1">
         <v>19.100000000000001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E5" s="1" t="b">
         <v>0</v>
@@ -9442,16 +9423,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1">
         <v>63.1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="E6" s="1" t="b">
         <v>0</v>
@@ -9459,44 +9440,44 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>866</v>
+        <v>236</v>
       </c>
       <c r="B7" s="1">
-        <v>5.2</v>
+        <v>500</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>865</v>
+        <v>982</v>
       </c>
       <c r="E7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>867</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1">
-        <v>5.2</v>
+        <v>500</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>865</v>
+        <v>982</v>
       </c>
       <c r="E8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B9" s="1">
         <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E9" s="1" t="b">
         <v>0</v>
@@ -9504,16 +9485,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" s="1">
         <v>58.6</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="E10" s="1" t="b">
         <v>0</v>
@@ -9521,16 +9502,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B11" s="1">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>794</v>
       </c>
       <c r="E11" s="1" t="b">
         <v>0</v>
@@ -9538,16 +9519,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B12" s="1">
-        <v>12.1</v>
+        <v>400</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="E12" s="1" t="b">
         <v>0</v>
@@ -9555,16 +9536,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B13" s="1">
-        <v>20.100000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="E13" s="1" t="b">
         <v>0</v>
@@ -9572,16 +9553,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B14" s="1">
-        <v>564</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="E14" s="1" t="b">
         <v>0</v>
@@ -9589,16 +9570,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>747</v>
+        <v>296</v>
       </c>
       <c r="B15" s="1">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>791</v>
+        <v>988</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E15" s="1" t="b">
         <v>0</v>
@@ -9606,16 +9587,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>269</v>
+        <v>721</v>
       </c>
       <c r="B16" s="1">
-        <v>354</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>799</v>
+        <v>989</v>
       </c>
       <c r="E16" s="1" t="b">
         <v>0</v>
@@ -9623,16 +9604,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>297</v>
+        <v>991</v>
       </c>
       <c r="B17" s="1">
-        <v>232</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>800</v>
+        <v>990</v>
       </c>
       <c r="E17" s="1" t="b">
         <v>0</v>
@@ -9640,16 +9621,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>729</v>
+        <v>324</v>
       </c>
       <c r="B18" s="1">
-        <v>46</v>
+        <v>564</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1001</v>
+        <v>783</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>998</v>
+        <v>794</v>
       </c>
       <c r="E18" s="1" t="b">
         <v>0</v>
@@ -9657,16 +9638,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1000</v>
+        <v>739</v>
       </c>
       <c r="B19" s="1">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1001</v>
+        <v>783</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>999</v>
+        <v>782</v>
       </c>
       <c r="E19" s="1" t="b">
         <v>0</v>
@@ -9674,35 +9655,36 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>237</v>
+        <v>858</v>
       </c>
       <c r="B20" s="1">
-        <v>500</v>
+        <v>5.2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>991</v>
+        <v>857</v>
       </c>
       <c r="E20" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>859</v>
       </c>
       <c r="B21" s="1">
-        <v>500</v>
+        <v>5.2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>991</v>
+        <v>857</v>
       </c>
       <c r="E21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E15">
-    <sortCondition ref="A2:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E21">
+    <sortCondition ref="E2:E21"/>
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9712,8 +9694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D6529A-AD0F-BE40-B12B-B05CC7888B52}">
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9735,28 +9717,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="B2" s="1">
         <f t="shared" ref="B2:B33" si="0">E2*F2/60/1000</f>
         <v>0.27119966666666662</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E2" s="1">
         <v>0.38</v>
@@ -9770,17 +9752,17 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" si="0"/>
         <v>5.6402799999999997</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E3" s="1">
         <v>8.24</v>
@@ -9794,17 +9776,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>5.6402799999999997</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="E4" s="1">
         <v>8.24</v>
@@ -9818,17 +9800,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>12.529881666666666</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E5" s="1">
         <v>19.3</v>
@@ -9842,17 +9824,17 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
         <v>63.312800000000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="E6" s="1">
         <v>48</v>
@@ -9866,17 +9848,17 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5.1947863333333331</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="E7" s="1">
         <v>15.14</v>
@@ -9890,17 +9872,17 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>8.1676533333333329E-2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E8" s="1">
         <v>0.106</v>
@@ -9914,17 +9896,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>0.3243773333333333</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="E9" s="1">
         <v>0.84399999999999997</v>
@@ -9938,17 +9920,17 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>125.86068999999999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E10" s="1">
         <v>180.2</v>
@@ -9962,17 +9944,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>0.30816520000000003</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="E11" s="1">
         <v>0.16800000000000001</v>
@@ -9986,17 +9968,17 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>21.765599999999999</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E12" s="1">
         <v>24</v>
@@ -10010,17 +9992,17 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>526.0145</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E13" s="1">
         <v>885</v>
@@ -10034,17 +10016,17 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>526.0145</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E14" s="1">
         <v>885</v>
@@ -10058,17 +10040,17 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>3.550885333333333</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="E15" s="1">
         <v>4.54</v>
@@ -10082,17 +10064,17 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
         <v>48.111866666666671</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E16" s="1">
         <v>73</v>
@@ -10106,17 +10088,17 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>344.44666666666666</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E17" s="1">
         <v>200</v>
@@ -10137,7 +10119,7 @@
         <v>70.148833333333329</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>115</v>
@@ -10154,17 +10136,17 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>1018.7466666666667</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E19" s="1">
         <v>1150</v>
@@ -10178,17 +10160,17 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>1018.7466666666667</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E20" s="1">
         <v>1150</v>
@@ -10202,17 +10184,17 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>11.192307716666667</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1">
         <v>24.029</v>
@@ -10226,17 +10208,17 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>130.1446</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="E22" s="1">
         <v>158</v>
@@ -10250,17 +10232,17 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>130.1446</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="E23" s="1">
         <v>158</v>
@@ -10274,17 +10256,17 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>107.884</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E24" s="1">
         <v>120</v>
@@ -10298,17 +10280,17 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>278.88013999999998</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E25" s="1">
         <v>310.2</v>
@@ -10322,17 +10304,17 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>274.38232333333337</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E26" s="1">
         <v>426.7</v>
@@ -10346,17 +10328,17 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>2.0001199999999999</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="E27" s="1">
         <v>3.1</v>
@@ -10370,17 +10352,17 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>60.276943333333335</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="E28" s="1">
         <v>67.400000000000006</v>
@@ -10394,17 +10376,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>1.9254900000000001</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E29" s="1">
         <v>2.1</v>
@@ -10418,17 +10400,17 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>1.9254900000000001</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E30" s="1">
         <v>2.1</v>
@@ -10442,17 +10424,17 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>183.41925000000001</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="E31" s="1">
         <v>308.7</v>
@@ -10466,17 +10448,17 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>13.169786666666665</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E32" s="1">
         <v>18.7</v>
@@ -10490,17 +10472,17 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>3.2495199999999995</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E33" s="1">
         <v>5.38</v>
@@ -10514,17 +10496,17 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" ref="B34:B65" si="1">E34*F34/60/1000</f>
         <v>0.21868733333333332</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E34" s="1">
         <v>0.22</v>
@@ -10538,17 +10520,17 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
         <v>64.761843333333331</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" s="1">
         <v>61.9</v>
@@ -10562,17 +10544,17 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
         <v>59.062916666666666</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E36" s="1">
         <v>61.9</v>
@@ -10586,17 +10568,17 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
         <v>353.85075000000001</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E37" s="1">
         <v>561</v>
@@ -10610,17 +10592,17 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
         <v>17.3165531</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E38" s="1">
         <v>21.713999999999999</v>
@@ -10634,17 +10616,17 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
         <v>33.742959999999997</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E39" s="1">
         <v>81.599999999999994</v>
@@ -10658,17 +10640,17 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
         <v>219.63366699999997</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="E40" s="1">
         <v>269.39</v>
@@ -10682,17 +10664,17 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
         <v>2.2479049999999998</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E41" s="1">
         <v>2.5299999999999998</v>
@@ -10706,17 +10688,17 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
         <v>15.083720000000001</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="E42" s="1">
         <v>17.8</v>
@@ -10730,17 +10712,17 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
         <v>10.343999999999999</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E43" s="1">
         <v>12</v>
@@ -10754,17 +10736,17 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
         <v>0.48657333333333336</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E44" s="1">
         <v>0.8</v>
@@ -10778,17 +10760,17 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
         <v>0.70094000000000001</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E45" s="1">
         <v>1.2</v>
@@ -10802,17 +10784,17 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
         <v>2.158299</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="E46" s="1">
         <v>1.69</v>
@@ -10826,17 +10808,17 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E47" s="1">
         <v>0.8</v>
@@ -10850,17 +10832,17 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E48" s="1">
         <v>0.8</v>
@@ -10874,17 +10856,17 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E49" s="1">
         <v>0.8</v>
@@ -10898,17 +10880,17 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E50" s="1">
         <v>0.8</v>
@@ -10922,17 +10904,17 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E51" s="1">
         <v>0.8</v>
@@ -10946,17 +10928,17 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E52" s="1">
         <v>0.8</v>
@@ -10970,17 +10952,17 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E53" s="1">
         <v>0.8</v>
@@ -10994,17 +10976,17 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
         <v>0.33098666666666665</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E54" s="1">
         <v>0.8</v>
@@ -11018,17 +11000,17 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
         <v>41.050543333333337</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E55" s="1">
         <v>69.8</v>
@@ -11042,17 +11024,17 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
         <v>41.050543333333337</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E56" s="1">
         <v>69.8</v>
@@ -11066,17 +11048,17 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>11.554690000000001</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="E57" s="1">
         <v>14.7</v>
@@ -11090,17 +11072,17 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
         <v>0.4281123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E58" s="1">
         <v>0.25800000000000001</v>
@@ -11114,17 +11096,17 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
         <v>0.31527650000000002</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E59" s="1">
         <v>0.19</v>
@@ -11138,17 +11120,17 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
         <v>0.31527650000000002</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E60" s="1">
         <v>0.19</v>
@@ -11162,17 +11144,17 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
         <v>2.1110600000000002</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E61" s="1">
         <v>3.4</v>
@@ -11186,17 +11168,17 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
         <v>87.688749999999999</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="E62" s="1">
         <v>102.5</v>
@@ -11207,17 +11189,17 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
         <v>2.8068833333333334</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E63" s="1">
         <v>7</v>
@@ -11228,17 +11210,17 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>2.024035</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="E64" s="1">
         <v>1.3</v>
@@ -11249,17 +11231,17 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
         <v>533.84294333333332</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E65" s="1">
         <v>343.3</v>
@@ -11270,17 +11252,17 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" ref="B66:B91" si="2">E66*F66/60/1000</f>
         <v>57.260135333333331</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E66" s="1">
         <v>54.53</v>
@@ -11298,10 +11280,10 @@
         <v>25.733580000000003</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="E67" s="1">
         <v>7.65</v>
@@ -11312,17 +11294,17 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="2"/>
         <v>80.148833333333329</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="E68" s="1">
         <v>70</v>
@@ -11333,17 +11315,17 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="2"/>
         <v>257.47333333333336</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E69" s="1">
         <v>200</v>
@@ -11354,17 +11336,17 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="2"/>
         <v>458.65504999999996</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E70" s="1">
         <v>771</v>
@@ -11375,17 +11357,17 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="2"/>
         <v>93.656044999999992</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E71" s="1">
         <v>42.7</v>
@@ -11396,17 +11378,17 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="2"/>
         <v>0.80994346666666672</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E72" s="1">
         <v>3.1280000000000001</v>
@@ -11417,17 +11399,17 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="2"/>
         <v>1.1465999999999998</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E73" s="1">
         <v>1.8</v>
@@ -11438,17 +11420,17 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="2"/>
         <v>1.1932049999999999E-3</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="E74" s="1">
         <v>2.8999999999999998E-3</v>
@@ -11459,17 +11441,17 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="2"/>
         <v>146.36000000000001</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E75" s="1">
         <v>120</v>
@@ -11480,17 +11462,17 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="2"/>
         <v>50.360741666666669</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E76" s="1">
         <v>82.3</v>
@@ -11501,17 +11483,17 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="2"/>
         <v>140.61600000000001</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E77" s="1">
         <v>280</v>
@@ -11522,17 +11504,17 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="2"/>
         <v>5.3310766666666671</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="E78" s="1">
         <v>8.3800000000000008</v>
@@ -11543,17 +11525,17 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="2"/>
         <v>3.1716800000000003</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E79" s="1">
         <v>3.2</v>
@@ -11564,17 +11546,17 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="2"/>
         <v>3.1716800000000003</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E80" s="1">
         <v>3.2</v>
@@ -11585,17 +11567,17 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="2"/>
         <v>1.8790616666666666</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E81" s="1">
         <v>2.2999999999999998</v>
@@ -11606,17 +11588,17 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="2"/>
         <v>1.8790616666666666</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E82" s="1">
         <v>2.2999999999999998</v>
@@ -11627,17 +11609,17 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="2"/>
         <v>8.4915000000000004E-2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E83" s="1">
         <v>0.13500000000000001</v>
@@ -11648,17 +11630,17 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="2"/>
         <v>0.4281123</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="E84" s="1">
         <v>0.25800000000000001</v>
@@ -11669,17 +11651,17 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>950</v>
+        <v>1016</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="2"/>
         <v>40.720800000000004</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="E85" s="1">
         <v>72</v>
@@ -11690,17 +11672,17 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="2"/>
         <v>41.443349999999995</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="E86" s="1">
         <v>31.8</v>
@@ -11711,17 +11693,17 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="2"/>
         <v>4.2426049999999993</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E87" s="1">
         <v>11.1</v>
@@ -11732,17 +11714,17 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="2"/>
         <v>4.2426049999999993</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E88" s="1">
         <v>11.1</v>
@@ -11753,17 +11735,17 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="2"/>
         <v>8.2078346666666668</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="E89" s="1">
         <v>2.44</v>
@@ -11774,17 +11756,17 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="2"/>
         <v>0.92808516666666663</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E90" s="1">
         <v>1.79</v>
@@ -11795,17 +11777,17 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="2"/>
         <v>0.92808516666666663</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E91" s="1">
         <v>1.79</v>
@@ -11815,8 +11797,9 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G93">
-    <sortCondition ref="G2:G93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
+    <sortCondition ref="G2:G91"/>
+    <sortCondition ref="A2:A91"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
